--- a/3 курс ПОИТ+ИСИТ=все_23.xlsx
+++ b/3 курс ПОИТ+ИСИТ=все_23.xlsx
@@ -8,20 +8,57 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_Кафедра_ПОИСИТ_ФИТР\4_ПРАКТИКА_ФИТР\Практика_ПРОИЗВОДСТВЕННАЯ_3к\Практика_ПРОИЗВОДСТВЕННАЯ_3к-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E942F5D-B899-4919-BF30-93E80DAEAD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E74CD64-6B47-4268-97E1-7F8369B0C8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОИТ" sheetId="3" r:id="rId1"/>
     <sheet name="ИСИТ САПР" sheetId="4" r:id="rId2"/>
+    <sheet name="вакансии" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" forceFullCalc="1"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="M101" authorId="0" shapeId="0" xr:uid="{D178F91B-0FC1-47E1-8E1A-AA33F5B15B6F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+есть место для 134 135</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="400">
   <si>
     <t>#</t>
   </si>
@@ -1002,13 +1039,232 @@
   </si>
   <si>
     <t>Минск</t>
+  </si>
+  <si>
+    <t>№пп</t>
+  </si>
+  <si>
+    <t>кол-во студентов</t>
+  </si>
+  <si>
+    <t>состояние</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГУО </t>
+  </si>
+  <si>
+    <t>Средняя школа № 101</t>
+  </si>
+  <si>
+    <t>г.Минск</t>
+  </si>
+  <si>
+    <t>Средняя школа № 9</t>
+  </si>
+  <si>
+    <t>Средняя школа № 105</t>
+  </si>
+  <si>
+    <t>ГУО</t>
+  </si>
+  <si>
+    <t>Средняя школа № 26</t>
+  </si>
+  <si>
+    <t>Средняя школа № 52</t>
+  </si>
+  <si>
+    <t>ГУ</t>
+  </si>
+  <si>
+    <t>Контактное лицо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тел. </t>
+  </si>
+  <si>
+    <t>Белорусский научно-исследовательский центр электронной документации</t>
+  </si>
+  <si>
+    <t>Сидюк Татьяна Степановна</t>
+  </si>
+  <si>
+    <t>8029 274-86-90</t>
+  </si>
+  <si>
+    <t>Интернет-магазин Евроопт</t>
+  </si>
+  <si>
+    <t>ЗАО</t>
+  </si>
+  <si>
+    <t>Инноватек</t>
+  </si>
+  <si>
+    <t>Валекс ЭДУ</t>
+  </si>
+  <si>
+    <t>ОАО</t>
+  </si>
+  <si>
+    <t>Гомельтраснефть Дружба</t>
+  </si>
+  <si>
+    <t>Новополоцк</t>
+  </si>
+  <si>
+    <t>ЧПУП</t>
+  </si>
+  <si>
+    <t>Ромгиль-Текс</t>
+  </si>
+  <si>
+    <t>Слоним</t>
+  </si>
+  <si>
+    <t>Каспел-АН</t>
+  </si>
+  <si>
+    <t>УО</t>
+  </si>
+  <si>
+    <t>Государственный центр коррекционно-развивающего обучения и реабилитации г.Гродно</t>
+  </si>
+  <si>
+    <t>Гродно</t>
+  </si>
+  <si>
+    <t>Минское городское управление Фонда социальной защиты населения</t>
+  </si>
+  <si>
+    <t>УЗ</t>
+  </si>
+  <si>
+    <t>Минская областная клиническая больница</t>
+  </si>
+  <si>
+    <t>Нива-Мотор</t>
+  </si>
+  <si>
+    <t>АКСОНИМ</t>
+  </si>
+  <si>
+    <t>Минский завод колесных тягочей</t>
+  </si>
+  <si>
+    <t>Модсен</t>
+  </si>
+  <si>
+    <t>НетКрэкерБел</t>
+  </si>
+  <si>
+    <t>Солидекс</t>
+  </si>
+  <si>
+    <t>СМ Технолоджис</t>
+  </si>
+  <si>
+    <t>ИУНПП</t>
+  </si>
+  <si>
+    <t>САМСОЛЮШНС</t>
+  </si>
+  <si>
+    <t>ПКП АТП</t>
+  </si>
+  <si>
+    <t>ОЗМ-ПРОЕКТ</t>
+  </si>
+  <si>
+    <t>Могилев</t>
+  </si>
+  <si>
+    <t>Орша</t>
+  </si>
+  <si>
+    <t>Газпром трансгаз Беларусь</t>
+  </si>
+  <si>
+    <t>ГУП</t>
+  </si>
+  <si>
+    <t>Национальное кадастровое агенство</t>
+  </si>
+  <si>
+    <t>Пинское промышленно-торговое объединение "Полесье"</t>
+  </si>
+  <si>
+    <t>Пинск</t>
+  </si>
+  <si>
+    <t>Средняя школа №72</t>
+  </si>
+  <si>
+    <t>Средняя школа №14 г.Мозыря</t>
+  </si>
+  <si>
+    <t>Мозырь</t>
+  </si>
+  <si>
+    <t>Ошмяны</t>
+  </si>
+  <si>
+    <t>Ассоциация любительского спорта</t>
+  </si>
+  <si>
+    <t>МЕБИУС-К</t>
+  </si>
+  <si>
+    <t>РУП</t>
+  </si>
+  <si>
+    <t>Ошмянское РУП ЖКХ</t>
+  </si>
+  <si>
+    <t>Байт проект</t>
+  </si>
+  <si>
+    <t>Фабрика инноваций и решений</t>
+  </si>
+  <si>
+    <t>"АМКОДОР" - управляющая компания холдинга</t>
+  </si>
+  <si>
+    <t>Центр по обеспечению деятельности буджетных организаций Бешенковичского района</t>
+  </si>
+  <si>
+    <t>г.п. Бешенковичи</t>
+  </si>
+  <si>
+    <t>КБ Радар</t>
+  </si>
+  <si>
+    <t>всего:</t>
+  </si>
+  <si>
+    <t>нет дог.</t>
+  </si>
+  <si>
+    <t>всего дог.</t>
+  </si>
+  <si>
+    <t>макс №дог</t>
+  </si>
+  <si>
+    <t>Сберегательный банк "Беларусбанк"</t>
+  </si>
+  <si>
+    <t>Эксперт Софтваре Девелопмент</t>
+  </si>
+  <si>
+    <t>Минский электротехнический завод им. Козлова</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1063,8 +1319,78 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1095,8 +1421,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1139,11 +1495,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1159,14 +1622,70 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1277,6 +1796,16 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1411,7 +1940,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D4A88F3-6F86-4C3E-9779-914C3E7CB18A}" name="Таблица3" displayName="Таблица3" ref="A1:K101" totalsRowShown="0" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D4A88F3-6F86-4C3E-9779-914C3E7CB18A}" name="Таблица3" displayName="Таблица3" ref="A1:K101" totalsRowShown="0" tableBorderDxfId="14">
   <autoFilter ref="A1:K101" xr:uid="{5D4A88F3-6F86-4C3E-9779-914C3E7CB18A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K101">
     <sortCondition ref="B1:B101"/>
@@ -1423,11 +1952,11 @@
     <tableColumn id="4" xr3:uid="{F617857B-ACD2-4BDA-B816-FC04456D25BE}" name="Отчество"/>
     <tableColumn id="5" xr3:uid="{3E97C8B2-5E3A-450F-91ED-FC2B356FA028}" name="Стоимость обучения"/>
     <tableColumn id="6" xr3:uid="{BEB8B1B7-2B11-4599-8333-07D2D80B3C1E}" name="Номер группы"/>
-    <tableColumn id="7" xr3:uid="{7D0B6F0A-E92A-4FB8-AF6F-0A9CCA4BE6AE}" name="№ дог" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{E55263BA-7052-4956-AEAB-93F258589CB9}" name="ООО" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{184A24AC-F20E-45A3-B91B-E0507517F8C5}" name="НазваОрганизации " dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{AEF8916A-D687-4E15-9098-947CDA9CBA8A}" name="город" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{5EB21B7A-294D-4BE5-AFFF-EAD1BC154927}" name="полное имя" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{7D0B6F0A-E92A-4FB8-AF6F-0A9CCA4BE6AE}" name="№ дог" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{E55263BA-7052-4956-AEAB-93F258589CB9}" name="ООО" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{184A24AC-F20E-45A3-B91B-E0507517F8C5}" name="НазваОрганизации " dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{AEF8916A-D687-4E15-9098-947CDA9CBA8A}" name="город" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{5EB21B7A-294D-4BE5-AFFF-EAD1BC154927}" name="полное имя" dataDxfId="9">
       <calculatedColumnFormula>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1436,7 +1965,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15704C1D-4351-47CB-89B9-0F8A925C15EC}" name="Таблица4" displayName="Таблица4" ref="A1:K92" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15704C1D-4351-47CB-89B9-0F8A925C15EC}" name="Таблица4" displayName="Таблица4" ref="A1:K92" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:K92" xr:uid="{15704C1D-4351-47CB-89B9-0F8A925C15EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K92">
     <sortCondition ref="B1:B92"/>
@@ -1448,13 +1977,30 @@
     <tableColumn id="4" xr3:uid="{F6AD8478-8133-48E8-AFD5-3F5ED8B6871F}" name="Отчество"/>
     <tableColumn id="5" xr3:uid="{13257A0C-F2A4-4507-AC67-5ACF34DE2F9D}" name="Стоимость обучения"/>
     <tableColumn id="6" xr3:uid="{28865E9E-1E0A-457E-ABD3-07CB9D0AEF66}" name="Номер группы"/>
-    <tableColumn id="7" xr3:uid="{BF8E48F7-3FE7-4104-863B-722E8DE07F65}" name="№ дог" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{B4C9AA2D-3D7C-4BBC-BDD3-D2DC631E8C5D}" name="ООО" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{E4AD8051-EEC7-4E22-9866-6A1334DDA1ED}" name="НазваОрганизации " dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{BE8E4589-33F8-4634-B5EF-F51F50B5D53F}" name="город" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{62255920-6861-4C44-9A1D-F1192A8E0CC2}" name="полное имя" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{BF8E48F7-3FE7-4104-863B-722E8DE07F65}" name="№ дог" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{B4C9AA2D-3D7C-4BBC-BDD3-D2DC631E8C5D}" name="ООО" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{E4AD8051-EEC7-4E22-9866-6A1334DDA1ED}" name="НазваОрганизации " dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{BE8E4589-33F8-4634-B5EF-F51F50B5D53F}" name="город" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{62255920-6861-4C44-9A1D-F1192A8E0CC2}" name="полное имя" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4A109A3-0C47-4E0D-A26E-2309EC441F7F}" name="Таблица2" displayName="Таблица2" ref="A1:H7" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H7" xr:uid="{E4A109A3-0C47-4E0D-A26E-2309EC441F7F}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{6104A72F-45B5-457D-9A38-0AFEEFA8126E}" name="№пп"/>
+    <tableColumn id="2" xr3:uid="{633A4141-0408-4F31-8FEA-7E5D4E967DD5}" name="ООО"/>
+    <tableColumn id="3" xr3:uid="{5055130D-B219-40BD-9E40-D2B40821C04E}" name="НазваОрганизации "/>
+    <tableColumn id="4" xr3:uid="{27587B8F-F42B-45D2-838A-27EB135FE43E}" name="город"/>
+    <tableColumn id="5" xr3:uid="{366FDDAA-752E-4E9D-B942-E11CE5B307D4}" name="кол-во студентов"/>
+    <tableColumn id="6" xr3:uid="{E71539E6-EFBB-4A9A-9371-F8C574B6A0D4}" name="состояние"/>
+    <tableColumn id="7" xr3:uid="{55981373-E913-4545-AFAD-F8BB9AC26FD8}" name="Контактное лицо"/>
+    <tableColumn id="8" xr3:uid="{3FB0CD4A-944A-4829-AA71-82051FC7693B}" name="тел. "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1746,11 +2292,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CE1DC5-6B57-4982-A3B8-DA6FAC811A8F}">
-  <dimension ref="A1:M103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CE1DC5-6B57-4982-A3B8-DA6FAC811A8F}">
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,9 +2308,11 @@
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="66.140625" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1874,10 +2422,18 @@
       <c r="F4">
         <v>10701320</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="G4" s="2">
+        <v>115</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K4" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Акимов Егор Сергеевич</v>
@@ -2067,10 +2623,18 @@
       <c r="F11">
         <v>10701320</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="G11" s="2">
+        <v>125</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="K11" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Бохонко Артём Олегович</v>
@@ -2148,10 +2712,16 @@
       <c r="F14">
         <v>10701320</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>132</v>
+      </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K14" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Верхов Александр Михайлович</v>
@@ -2260,10 +2830,16 @@
       <c r="F18">
         <v>10701120</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>113</v>
+      </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K18" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Гальцов Богдан Викторович</v>
@@ -2369,10 +2945,18 @@
       <c r="F22">
         <v>10701220</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="G22" s="2">
+        <v>116</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K22" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Данилевич Александра Николаевна</v>
@@ -2450,10 +3034,18 @@
       <c r="F25">
         <v>10701220</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="G25" s="2">
+        <v>120</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="K25" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Дроздов Александр Сергеевич</v>
@@ -2674,9 +3266,15 @@
       <c r="F33">
         <v>10701220</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="G33" s="2">
+        <v>130</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
@@ -2792,10 +3390,18 @@
       <c r="F37">
         <v>10701120</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="G37" s="2">
+        <v>112</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K37" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Ковальчук Владислав Олегович</v>
@@ -2848,10 +3454,18 @@
       <c r="F39">
         <v>10701220</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="G39" s="2">
+        <v>123</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="K39" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Кононович Владислав Сергеевич</v>
@@ -2876,10 +3490,18 @@
       <c r="F40">
         <v>10701320</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="G40" s="2">
+        <v>133</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K40" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Константинов Никита Сергеевич</v>
@@ -3013,10 +3635,18 @@
       <c r="F45">
         <v>10701220</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="G45" s="2">
+        <v>114</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K45" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Кудласевич Дмитрий Романович</v>
@@ -3125,10 +3755,18 @@
       <c r="F49">
         <v>10701120</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="G49" s="2">
+        <v>117</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K49" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Купченко Анастасия Ивановна</v>
@@ -3181,10 +3819,18 @@
       <c r="F51">
         <v>10701220</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="G51" s="2">
+        <v>122</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K51" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Лашукевич Кирилл Дмитриевич</v>
@@ -3402,10 +4048,18 @@
       <c r="F59">
         <v>10701120</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="G59" s="2">
+        <v>121</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="K59" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Морозов Дмитрий Александрович</v>
@@ -3638,10 +4292,18 @@
       <c r="F67">
         <v>10701320</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
+      <c r="G67" s="2">
+        <v>104</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="K67" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Попков Андрей Валерьевич</v>
@@ -3694,10 +4356,18 @@
       <c r="F69">
         <v>10701120</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+      <c r="G69" s="2">
+        <v>137</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K69" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Правошинский Владислав Михайлович</v>
@@ -3750,10 +4420,18 @@
       <c r="F71">
         <v>10701220</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+      <c r="G71" s="2">
+        <v>114</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K71" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Рудоловский Максим Николаевич</v>
@@ -3817,50 +4495,58 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2939</v>
+        <v>6946</v>
       </c>
       <c r="B74" t="s">
         <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F74">
-        <v>10701220</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+        <v>10701320</v>
+      </c>
+      <c r="G74" s="2">
+        <v>105</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K74" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
-        <v>Савицкий Владимир Андреевич</v>
+        <v>Савицкий Артём Сергеевич</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>6946</v>
+        <v>2939</v>
       </c>
       <c r="B75" t="s">
         <v>146</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F75">
-        <v>10701320</v>
+        <v>10701220</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="3"/>
@@ -3868,7 +4554,7 @@
       <c r="J75" s="3"/>
       <c r="K75" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
-        <v>Савицкий Артём Сергеевич</v>
+        <v>Савицкий Владимир Андреевич</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3946,10 +4632,18 @@
       <c r="F78">
         <v>10701420</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="G78" s="2">
+        <v>111</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K78" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Синевич Владислав Дмитриевич</v>
@@ -4148,10 +4842,18 @@
       <c r="F85">
         <v>10701320</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+      <c r="G85" s="2">
+        <v>124</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K85" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Цынкевич Глеб Владимирович</v>
@@ -4260,10 +4962,18 @@
       <c r="F89">
         <v>10701220</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+      <c r="G89" s="2">
+        <v>103</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="K89" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Чижик Артём Александрович</v>
@@ -4400,10 +5110,18 @@
       <c r="F94">
         <v>10701220</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
+      <c r="G94" s="2">
+        <v>119</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K94" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Шлома Иван Михайлович</v>
@@ -4441,31 +5159,39 @@
       <c r="A96">
         <v>832</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="25">
         <v>10701120</v>
       </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
+      <c r="G96" s="24">
+        <v>135</v>
+      </c>
+      <c r="H96" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="I96" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="J96" s="24" t="s">
+        <v>326</v>
+      </c>
       <c r="K96" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Шубелько Максим Александрович</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>38468</v>
       </c>
@@ -4484,16 +5210,24 @@
       <c r="F97">
         <v>10701420</v>
       </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
+      <c r="G97" s="23">
+        <v>134</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="I97" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K97" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Шуманский Александр Сергеевич</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>802</v>
       </c>
@@ -4512,16 +5246,24 @@
       <c r="F98">
         <v>10701320</v>
       </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
+      <c r="G98" s="2">
+        <v>118</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K98" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Шуров Глеб Олегович</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1140</v>
       </c>
@@ -4555,7 +5297,7 @@
         <v>Щабловский Даниил Андреевич</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4413</v>
       </c>
@@ -4579,8 +5321,11 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v xml:space="preserve">Эль Кадмири Яхья </v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M100" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>23566</v>
       </c>
@@ -4606,38 +5351,77 @@
       </c>
       <c r="M101" s="5">
         <f>'ИСИТ САПР'!M93</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B102" s="13">
         <f>COUNTA(B2:B101)</f>
         <v>100</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="11">
         <f>SUBTOTAL(104,G2:G101)</f>
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="I102" s="8">
-        <f>COUNTA(J2:J101)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M103" s="9">
+        <f>COUNTA(Таблица3[[НазваОрганизации ]])</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L103" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="M103" s="15">
         <f>'ИСИТ САПР'!M95</f>
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="N103" s="16">
+        <f>M103/M105</f>
+        <v>0.26701570680628273</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L104" s="17"/>
+      <c r="N104" s="18"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L105" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="M105" s="13">
+        <f>SUM(B102,'ИСИТ САПР'!B93)</f>
+        <v>191</v>
+      </c>
+      <c r="N105" s="18"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L106" s="17"/>
+      <c r="N106" s="18"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L107" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="M107" s="21">
+        <f>M105-M103</f>
+        <v>140</v>
+      </c>
+      <c r="N107" s="22">
+        <f>M107/M105</f>
+        <v>0.73298429319371727</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>$M$101</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4646,8 +5430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0832CED-41E7-474E-B529-C4D22939F02E}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4660,8 +5444,8 @@
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="83.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4747,10 +5531,18 @@
       <c r="F3">
         <v>10702120</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="G3" s="2">
+        <v>106</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K3" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Ашейчик Дарья Сергеевна</v>
@@ -4803,9 +5595,7 @@
       <c r="F5">
         <v>10702120</v>
       </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -5035,10 +5825,18 @@
       <c r="F13">
         <v>10702220</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="G13" s="2">
+        <v>126</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="K13" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Володько Вадим Артурович</v>
@@ -5243,10 +6041,18 @@
       <c r="F20">
         <v>10702120</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="G20" s="24">
+        <v>135</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>326</v>
+      </c>
       <c r="K20" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Долгий Владимир Владимирович</v>
@@ -5604,10 +6410,18 @@
       <c r="F33">
         <v>10702320</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="G33" s="2">
+        <v>129</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K33" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Кирющева Алёна Александровна</v>
@@ -5840,10 +6654,18 @@
       <c r="F41">
         <v>10702120</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="G41" s="2">
+        <v>102</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K41" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Кусакова Светлана Сергеевна</v>
@@ -6014,10 +6836,18 @@
       <c r="F47">
         <v>10702320</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="G47" s="2">
+        <v>127</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K47" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Манкевич Виктор Александрович</v>
@@ -6042,9 +6872,15 @@
       <c r="F48">
         <v>10702320</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="G48" s="2">
+        <v>128</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
@@ -6210,10 +7046,18 @@
       <c r="F54">
         <v>10702420</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="G54" s="2">
+        <v>110</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K54" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Новик Егор Сергеевич</v>
@@ -6266,10 +7110,18 @@
       <c r="F56">
         <v>10702320</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="G56" s="2">
+        <v>101</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K56" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Пашков Владислав Сергеевич</v>
@@ -6518,10 +7370,18 @@
       <c r="F65">
         <v>10702120</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
+      <c r="G65" s="2">
+        <v>107</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K65" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Савчик Алина Олеговна</v>
@@ -6686,10 +7546,18 @@
       <c r="F71">
         <v>10702220</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+      <c r="G71" s="2">
+        <v>108</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K71" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Синило Егор Дмитриевич</v>
@@ -7075,10 +7943,18 @@
       <c r="F85">
         <v>10702320</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+      <c r="G85" s="2">
+        <v>109</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="K85" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Ходькова Милана Олеговна</v>
@@ -7187,10 +8063,18 @@
       <c r="F89">
         <v>10702320</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+      <c r="G89" s="2">
+        <v>136</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K89" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Шпак Владислав Владимирович</v>
@@ -7271,39 +8155,56 @@
       <c r="F92">
         <v>10702220</v>
       </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
+      <c r="G92" s="2">
+        <v>131</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="K92" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Яцук Михаил Андреевич</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G93">
+      <c r="B93" s="13">
+        <f>COUNTA(B2:B92)</f>
+        <v>91</v>
+      </c>
+      <c r="G93" s="12">
         <f>SUBTOTAL(104,G2:G92)</f>
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="I93" s="8">
         <f>COUNTA(I2:I92)</f>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M93" s="4">
         <f>MAX(G93,ПОИТ!G102)</f>
-        <v>4</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M95" s="8">
         <f>SUM(ПОИТ!I102,I93)</f>
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G92">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+  <conditionalFormatting sqref="G2:G19 G21:G92">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>$M$93</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>$M$101</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7311,4 +8212,147 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0CB5C1-5DC9-4193-9BAF-8D5E19E2CF7E}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="70.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/3 курс ПОИТ+ИСИТ=все_23.xlsx
+++ b/3 курс ПОИТ+ИСИТ=все_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_Кафедра_ПОИСИТ_ФИТР\4_ПРАКТИКА_ФИТР\Практика_ПРОИЗВОДСТВЕННАЯ_3к\Практика_ПРОИЗВОДСТВЕННАЯ_3к-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E74CD64-6B47-4268-97E1-7F8369B0C8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F196E3-E61E-4683-9F4C-9FC46C27DE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,12 +53,74 @@
         </r>
       </text>
     </comment>
+    <comment ref="G103" authorId="0" shapeId="0" xr:uid="{97D9292C-8E89-4061-9DAB-49C5C001515C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+есть место для 134 135</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="G95" authorId="0" shapeId="0" xr:uid="{6EA0337F-DE1A-4E6C-94C5-F1832ABFB64F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+есть место для 134 135</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="457">
   <si>
     <t>#</t>
   </si>
@@ -1258,13 +1320,184 @@
   </si>
   <si>
     <t>Минский электротехнический завод им. Козлова</t>
+  </si>
+  <si>
+    <t>ГП</t>
+  </si>
+  <si>
+    <t>НИИ ТЗИ</t>
+  </si>
+  <si>
+    <t>Лотиком</t>
+  </si>
+  <si>
+    <t>Строительная компания "Прометей"</t>
+  </si>
+  <si>
+    <t>Горки</t>
+  </si>
+  <si>
+    <t>Белатра</t>
+  </si>
+  <si>
+    <t>РУПТП</t>
+  </si>
+  <si>
+    <t>Оршанский льнокомбинат</t>
+  </si>
+  <si>
+    <t>БЕЛТЕЛЕКОМ</t>
+  </si>
+  <si>
+    <t>СООО</t>
+  </si>
+  <si>
+    <t>Интеликс Бел</t>
+  </si>
+  <si>
+    <t>плановый отдел</t>
+  </si>
+  <si>
+    <t>"ИНТЕГРАЛ" - управляющая компания холдинга "ИНТЕГРАЛ"</t>
+  </si>
+  <si>
+    <t>НТЦ КОНТНАКТ</t>
+  </si>
+  <si>
+    <t>ГНУ</t>
+  </si>
+  <si>
+    <t>Объединенный институт машиностроения НАН Беларуси</t>
+  </si>
+  <si>
+    <t>ЕМК Софт</t>
+  </si>
+  <si>
+    <t>Иннотех Солюшнс</t>
+  </si>
+  <si>
+    <t>Техно-Скай</t>
+  </si>
+  <si>
+    <t>Жлобин</t>
+  </si>
+  <si>
+    <t>Жлобинский филиал Гомельское агенство по государственной регистрации и земельному кадастру</t>
+  </si>
+  <si>
+    <t>БЕЛРОБОТ</t>
+  </si>
+  <si>
+    <t>ПСТ Лабс</t>
+  </si>
+  <si>
+    <t>Саппорт Деск Технолоджис</t>
+  </si>
+  <si>
+    <t>РНПУП</t>
+  </si>
+  <si>
+    <t>Центр радиотехники Национальной академии наук Беларуси</t>
+  </si>
+  <si>
+    <t>Даталайз</t>
+  </si>
+  <si>
+    <t>Меркелеон девелопмент</t>
+  </si>
+  <si>
+    <t>Ивашин</t>
+  </si>
+  <si>
+    <t>ИнДев Солюшенс</t>
+  </si>
+  <si>
+    <t>Мегаполис Инвест</t>
+  </si>
+  <si>
+    <t>ИП</t>
+  </si>
+  <si>
+    <t>Кашуба А.М.</t>
+  </si>
+  <si>
+    <t>ПКУП</t>
+  </si>
+  <si>
+    <t>"Руно-Услуга" Невской Н.П.</t>
+  </si>
+  <si>
+    <t>Марьина Горка</t>
+  </si>
+  <si>
+    <t>Энергия ГМБХ</t>
+  </si>
+  <si>
+    <t>Е-Сервисторг</t>
+  </si>
+  <si>
+    <t>УП</t>
+  </si>
+  <si>
+    <t>УКС города Пинска</t>
+  </si>
+  <si>
+    <t>Белагропромбанк</t>
+  </si>
+  <si>
+    <t>Витебск</t>
+  </si>
+  <si>
+    <t>Витебскэнерго Филиал "Учебный центр"</t>
+  </si>
+  <si>
+    <t>Белтаможсервис</t>
+  </si>
+  <si>
+    <t>Соредняя школа №101 г.Минска</t>
+  </si>
+  <si>
+    <t>Яшкин</t>
+  </si>
+  <si>
+    <t>Имэджинари студио</t>
+  </si>
+  <si>
+    <t>Ай Ти Дистрибуция</t>
+  </si>
+  <si>
+    <t>ПроГИС</t>
+  </si>
+  <si>
+    <t>дз</t>
+  </si>
+  <si>
+    <t>Средняя школа №72 г.Минска</t>
+  </si>
+  <si>
+    <t>ВЕЗА-Г</t>
+  </si>
+  <si>
+    <t>ЧУП</t>
+  </si>
+  <si>
+    <t>АйТи Перфоманс</t>
+  </si>
+  <si>
+    <t>Банк роста и развития бизнеса</t>
+  </si>
+  <si>
+    <t>СтримДекор</t>
+  </si>
+  <si>
+    <t>Траектория качества</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1389,6 +1622,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1452,7 +1692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1601,12 +1841,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1645,6 +1898,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1939,6 +2201,929 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-909D-44F1-9F8D-AB2F4B1A20B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-909D-44F1-9F8D-AB2F4B1A20B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-909D-44F1-9F8D-AB2F4B1A20B7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-909D-44F1-9F8D-AB2F4B1A20B7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>ПОИТ!$L$103:$L$107</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(ПОИТ!$L$103,ПОИТ!$L$107)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>всего дог.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>нет дог.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>ПОИТ!$M$103:$M$107</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(ПОИТ!$M$103,ПОИТ!$M$107)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions/>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-909D-44F1-9F8D-AB2F4B1A20B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{174FBC6B-C741-E7D0-9BA2-F46FFA26828E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D4A88F3-6F86-4C3E-9779-914C3E7CB18A}" name="Таблица3" displayName="Таблица3" ref="A1:K101" totalsRowShown="0" tableBorderDxfId="14">
   <autoFilter ref="A1:K101" xr:uid="{5D4A88F3-6F86-4C3E-9779-914C3E7CB18A}"/>
@@ -1965,10 +3150,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15704C1D-4351-47CB-89B9-0F8A925C15EC}" name="Таблица4" displayName="Таблица4" ref="A1:K92" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:K92" xr:uid="{15704C1D-4351-47CB-89B9-0F8A925C15EC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K92">
-    <sortCondition ref="B1:B92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15704C1D-4351-47CB-89B9-0F8A925C15EC}" name="Таблица4" displayName="Таблица4" ref="A1:K93" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:K93" xr:uid="{15704C1D-4351-47CB-89B9-0F8A925C15EC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K93">
+    <sortCondition ref="B1:B93"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{3810A656-4E1C-4D29-A1D5-BB6E47F0C79D}" name="#"/>
@@ -2295,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CE1DC5-6B57-4982-A3B8-DA6FAC811A8F}">
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,10 +3579,18 @@
       <c r="F3">
         <v>10701320</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="G3" s="2">
+        <v>176</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K3" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Аверков Илья Александрович</v>
@@ -2656,10 +3849,18 @@
       <c r="F12">
         <v>10701220</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="2">
+        <v>180</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K12" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v xml:space="preserve">Бояринов Владислав </v>
@@ -2746,9 +3947,15 @@
       <c r="F15">
         <v>10701120</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="G15" s="2">
+        <v>162</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>432</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
@@ -2802,9 +4009,15 @@
       <c r="F17">
         <v>10701220</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="G17" s="2">
+        <v>158</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>427</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
@@ -2892,10 +4105,18 @@
       <c r="F20">
         <v>10701220</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="G20" s="2">
+        <v>155</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K20" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Грибчук Алексей Олегович</v>
@@ -2981,9 +4202,15 @@
       <c r="F23">
         <v>10701120</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="G23" s="2">
+        <v>154</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>422</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
@@ -3070,10 +4297,18 @@
       <c r="F26">
         <v>10701420</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="G26" s="2">
+        <v>139</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K26" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Дырда Кирилл Олегович</v>
@@ -3099,9 +4334,9 @@
         <v>10701220</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="K27" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Жабра Гияс Айман</v>
@@ -3126,10 +4361,18 @@
       <c r="F28">
         <v>10701320</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="G28" s="2">
+        <v>172</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K28" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Жаркевич Александра Алексеевна</v>
@@ -3154,10 +4397,18 @@
       <c r="F29">
         <v>10701420</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="G29" s="2">
+        <v>174</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K29" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Журомский Александр Алексеевич</v>
@@ -3210,10 +4461,18 @@
       <c r="F31">
         <v>10701220</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="G31" s="2">
+        <v>171</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K31" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Кардаш Евгений Андреевич</v>
@@ -3328,9 +4587,15 @@
       <c r="F35">
         <v>10701420</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="G35" s="2">
+        <v>157</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>426</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
@@ -3582,10 +4847,18 @@
       <c r="F43">
         <v>10701320</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="G43" s="2">
+        <v>142</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="K43" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Костин Иван Сергеевич</v>
@@ -3671,10 +4944,18 @@
       <c r="F46">
         <v>10701120</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="G46" s="2">
+        <v>179</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K46" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Куксо Артём Игоревич</v>
@@ -3855,10 +5136,18 @@
       <c r="F52">
         <v>10701320</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="G52" s="2">
+        <v>167</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="K52" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Лесько Артём Олегович</v>
@@ -3911,10 +5200,18 @@
       <c r="F54">
         <v>10701320</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="G54" s="2">
+        <v>177</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K54" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Маловичко Матвей Андреевич</v>
@@ -3992,10 +5289,18 @@
       <c r="F57">
         <v>10701420</v>
       </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="G57" s="2">
+        <v>147</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K57" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Мацуцин Никита Владленович</v>
@@ -4084,10 +5389,18 @@
       <c r="F60">
         <v>10701420</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="G60" s="2">
+        <v>181</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K60" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Непогода Егор Сергеевич</v>
@@ -4097,27 +5410,29 @@
       <c r="A61">
         <v>2519</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="26">
         <v>10701320</v>
       </c>
       <c r="G61" s="2">
-        <v>1</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="2" t="s">
-        <v>325</v>
+        <v>166</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>437</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>326</v>
@@ -4146,10 +5461,18 @@
       <c r="F62">
         <v>10701220</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="G62" s="2">
+        <v>180</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K62" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Носович Антон Викторович</v>
@@ -4604,10 +5927,18 @@
       <c r="F77">
         <v>10701320</v>
       </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="G77" s="2">
+        <v>165</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K77" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Силков Максим Сергеевич</v>
@@ -4702,9 +6033,15 @@
       <c r="F80">
         <v>10701220</v>
       </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
+      <c r="G80" s="2">
+        <v>156</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>425</v>
+      </c>
       <c r="J80" s="3"/>
       <c r="K80" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
@@ -4758,9 +6095,15 @@
       <c r="F82">
         <v>10701120</v>
       </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
+      <c r="G82" s="2">
+        <v>159</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>428</v>
+      </c>
       <c r="J82" s="3"/>
       <c r="K82" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
@@ -4934,10 +6277,18 @@
       <c r="F88">
         <v>10701420</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="G88" s="2">
+        <v>138</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K88" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Чернейко Мирон Андреевич</v>
@@ -5026,10 +6377,18 @@
       <c r="F91">
         <v>10701220</v>
       </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+      <c r="G91" s="2">
+        <v>170</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K91" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Шарапа Владислав Юрьевич</v>
@@ -5350,8 +6709,8 @@
         <v xml:space="preserve">Ялчынкая Озгюр </v>
       </c>
       <c r="M101" s="5">
-        <f>'ИСИТ САПР'!M93</f>
-        <v>137</v>
+        <f>'ИСИТ САПР'!M94</f>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5361,24 +6720,28 @@
       </c>
       <c r="G102" s="11">
         <f>SUBTOTAL(104,G2:G101)</f>
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="I102" s="8">
         <f>COUNTA(Таблица3[[НазваОрганизации ]])</f>
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G103" s="5">
+        <f>M101</f>
+        <v>181</v>
+      </c>
       <c r="L103" s="14" t="s">
         <v>395</v>
       </c>
       <c r="M103" s="15">
-        <f>'ИСИТ САПР'!M95</f>
-        <v>51</v>
+        <f>'ИСИТ САПР'!M96</f>
+        <v>99</v>
       </c>
       <c r="N103" s="16">
         <f>M103/M105</f>
-        <v>0.26701570680628273</v>
+        <v>0.515625</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -5390,8 +6753,8 @@
         <v>393</v>
       </c>
       <c r="M105" s="13">
-        <f>SUM(B102,'ИСИТ САПР'!B93)</f>
-        <v>191</v>
+        <f>SUM(B102,'ИСИТ САПР'!B94)</f>
+        <v>192</v>
       </c>
       <c r="N105" s="18"/>
     </row>
@@ -5405,11 +6768,11 @@
       </c>
       <c r="M107" s="21">
         <f>M105-M103</f>
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="N107" s="22">
         <f>M107/M105</f>
-        <v>0.73298429319371727</v>
+        <v>0.484375</v>
       </c>
     </row>
   </sheetData>
@@ -5419,19 +6782,20 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0832CED-41E7-474E-B529-C4D22939F02E}">
-  <dimension ref="A1:M95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0832CED-41E7-474E-B529-C4D22939F02E}">
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5685,10 +7049,18 @@
       <c r="F8">
         <v>10702120</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="G8" s="2">
+        <v>161</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K8" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Болотько Александр Леонидович</v>
@@ -5769,10 +7141,18 @@
       <c r="F11">
         <v>10702420</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="G11" s="2">
+        <v>140</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="K11" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Винник Кирилл Владимирович</v>
@@ -5985,10 +7365,18 @@
       <c r="F18">
         <v>10702220</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="G18" s="2">
+        <v>168</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K18" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Давидович Елизавета Николаевна</v>
@@ -6013,10 +7401,18 @@
       <c r="F19">
         <v>10702120</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="G19" s="2">
+        <v>149</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K19" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Демянко Кирилл Андреевич</v>
@@ -6133,10 +7529,18 @@
       <c r="F23">
         <v>10702320</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="G23" s="2">
+        <v>143</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K23" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Емельянов Роман Андреевич</v>
@@ -6217,10 +7621,18 @@
       <c r="F26">
         <v>10702220</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="G26" s="2">
+        <v>144</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K26" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Зайцев Артём Вячеславович</v>
@@ -6354,10 +7766,18 @@
       <c r="F31">
         <v>10702420</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="G31" s="2">
+        <v>152</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>419</v>
+      </c>
       <c r="K31" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Кириленко Егор Вадимович</v>
@@ -6382,10 +7802,18 @@
       <c r="F32">
         <v>10702420</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="G32" s="2">
+        <v>153</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K32" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Кириллов Станислав Вячеславович</v>
@@ -6480,10 +7908,18 @@
       <c r="F35">
         <v>10702220</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="G35" s="2">
+        <v>150</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K35" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Кишкурно Мария Вячеславовна</v>
@@ -6592,10 +8028,18 @@
       <c r="F39">
         <v>10702120</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="G39" s="2">
+        <v>160</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K39" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Кораневский Виктор Геннадьевич</v>
@@ -6934,9 +8378,15 @@
       <c r="F50">
         <v>10702220</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="G50" s="2">
+        <v>164</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>436</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
@@ -6962,10 +8412,18 @@
       <c r="F51">
         <v>10702120</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="G51" s="2">
+        <v>163</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="K51" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Невский Кирилл Сергеевич</v>
@@ -7082,10 +8540,18 @@
       <c r="F55">
         <v>10702220</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="G55" s="2">
+        <v>169</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="K55" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Парахневич Елена Сергеевна</v>
@@ -7202,10 +8668,18 @@
       <c r="F59">
         <v>10702420</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="G59" s="2">
+        <v>146</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K59" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Пополамов Денис Вячеславович</v>
@@ -7230,10 +8704,18 @@
       <c r="F60">
         <v>10702320</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="G60" s="2">
+        <v>175</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K60" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Радюк Никита Олегович</v>
@@ -7258,8 +8740,12 @@
       <c r="F61">
         <v>10702120</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="3"/>
+      <c r="G61" s="2">
+        <v>4</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" t="str">
@@ -7314,10 +8800,18 @@
       <c r="F63">
         <v>10702220</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="G63" s="2">
+        <v>141</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K63" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Решетникова Кристина Юрьевна</v>
@@ -7406,10 +8900,18 @@
       <c r="F66">
         <v>10702420</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
+      <c r="G66" s="2">
+        <v>145</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="K66" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Самуйлич Данила Сергеевич</v>
@@ -7434,10 +8936,18 @@
       <c r="F67">
         <v>10702220</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
+      <c r="G67" s="2">
+        <v>141</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K67" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Самцевич Алексей Игоревич</v>
@@ -7462,10 +8972,18 @@
       <c r="F68">
         <v>10702220</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
+      <c r="G68" s="2">
+        <v>149</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K68" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Светличный Александр Павлович</v>
@@ -7490,10 +9008,18 @@
       <c r="F69">
         <v>10702120</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+      <c r="G69" s="2">
+        <v>173</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K69" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Свириденко Даниил Витальевич</v>
@@ -7582,10 +9108,18 @@
       <c r="F72">
         <v>10702420</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
+      <c r="G72" s="2">
+        <v>151</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K72" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Синявская Ульяна Александровна</v>
@@ -7610,9 +9144,13 @@
       <c r="F73">
         <v>10702420</v>
       </c>
-      <c r="G73" s="2"/>
+      <c r="G73" s="2">
+        <v>2</v>
+      </c>
       <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
+      <c r="I73" s="2" t="s">
+        <v>411</v>
+      </c>
       <c r="J73" s="3"/>
       <c r="K73" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
@@ -7638,10 +9176,18 @@
       <c r="F74">
         <v>10702220</v>
       </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+      <c r="G74" s="2">
+        <v>148</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K74" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Соколовский Андрей Владимирович</v>
@@ -7915,10 +9461,18 @@
       <c r="F84">
         <v>10702220</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+      <c r="G84" s="2">
+        <v>149</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K84" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Халецкий Никита Владимирович</v>
@@ -8172,44 +9726,87 @@
         <v>Яцук Михаил Андреевич</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B93" s="13">
-        <f>COUNTA(B2:B92)</f>
-        <v>91</v>
-      </c>
-      <c r="G93" s="12">
-        <f>SUBTOTAL(104,G2:G92)</f>
-        <v>136</v>
-      </c>
-      <c r="I93" s="8">
-        <f>COUNTA(I2:I92)</f>
-        <v>20</v>
-      </c>
-      <c r="M93" s="4">
-        <f>MAX(G93,ПОИТ!G102)</f>
-        <v>137</v>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93">
+        <v>10702320</v>
+      </c>
+      <c r="G93" s="28">
+        <v>178</v>
+      </c>
+      <c r="H93" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="J93" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="K93" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
+        <v>Яшкин Кирилл Викторович</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B94" s="29">
+        <f>COUNTA(B2:B93)</f>
+        <v>92</v>
+      </c>
+      <c r="G94" s="12">
+        <f>SUBTOTAL(104,G2:G93)</f>
+        <v>178</v>
+      </c>
+      <c r="I94" s="30">
+        <f>COUNTA(I2:I93)</f>
+        <v>45</v>
+      </c>
+      <c r="M94" s="4">
+        <f>MAX(G94,ПОИТ!G102)</f>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M95" s="8">
-        <f>SUM(ПОИТ!I102,I93)</f>
-        <v>51</v>
+      <c r="G95" s="5">
+        <f>M94</f>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M96" s="8">
+        <f>SUM(ПОИТ!I102,I94)</f>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G19 G21:G92">
+  <conditionalFormatting sqref="G2:G19 G21:G93">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>$M$93</formula>
+      <formula>$M$94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>$M$101</formula>
+      <formula>$M$102</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8219,7 +9816,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/3 курс ПОИТ+ИСИТ=все_23.xlsx
+++ b/3 курс ПОИТ+ИСИТ=все_23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_Кафедра_ПОИСИТ_ФИТР\4_ПРАКТИКА_ФИТР\Практика_ПРОИЗВОДСТВЕННАЯ_3к\Практика_ПРОИЗВОДСТВЕННАЯ_3к-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F196E3-E61E-4683-9F4C-9FC46C27DE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3FDD5E-73E8-43F5-B81F-7E6751573ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОИТ" sheetId="3" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="G95" authorId="0" shapeId="0" xr:uid="{6EA0337F-DE1A-4E6C-94C5-F1832ABFB64F}">
+    <comment ref="G96" authorId="0" shapeId="0" xr:uid="{6EA0337F-DE1A-4E6C-94C5-F1832ABFB64F}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="478">
   <si>
     <t>#</t>
   </si>
@@ -1097,9 +1097,6 @@
     <t>Столбец1</t>
   </si>
   <si>
-    <t>Softarex Technologies Inc</t>
-  </si>
-  <si>
     <t>Минск</t>
   </si>
   <si>
@@ -1211,9 +1208,6 @@
     <t>АКСОНИМ</t>
   </si>
   <si>
-    <t>Минский завод колесных тягочей</t>
-  </si>
-  <si>
     <t>Модсен</t>
   </si>
   <si>
@@ -1259,9 +1253,6 @@
     <t>Пинск</t>
   </si>
   <si>
-    <t>Средняя школа №72</t>
-  </si>
-  <si>
     <t>Средняя школа №14 г.Мозыря</t>
   </si>
   <si>
@@ -1283,18 +1274,12 @@
     <t>Ошмянское РУП ЖКХ</t>
   </si>
   <si>
-    <t>Байт проект</t>
-  </si>
-  <si>
     <t>Фабрика инноваций и решений</t>
   </si>
   <si>
     <t>"АМКОДОР" - управляющая компания холдинга</t>
   </si>
   <si>
-    <t>Центр по обеспечению деятельности буджетных организаций Бешенковичского района</t>
-  </si>
-  <si>
     <t>г.п. Бешенковичи</t>
   </si>
   <si>
@@ -1355,9 +1340,6 @@
     <t>Интеликс Бел</t>
   </si>
   <si>
-    <t>плановый отдел</t>
-  </si>
-  <si>
     <t>"ИНТЕГРАЛ" - управляющая компания холдинга "ИНТЕГРАЛ"</t>
   </si>
   <si>
@@ -1418,9 +1400,6 @@
     <t>ИП</t>
   </si>
   <si>
-    <t>Кашуба А.М.</t>
-  </si>
-  <si>
     <t>ПКУП</t>
   </si>
   <si>
@@ -1436,12 +1415,6 @@
     <t>Е-Сервисторг</t>
   </si>
   <si>
-    <t>УП</t>
-  </si>
-  <si>
-    <t>УКС города Пинска</t>
-  </si>
-  <si>
     <t>Белагропромбанк</t>
   </si>
   <si>
@@ -1491,13 +1464,103 @@
   </si>
   <si>
     <t>Траектория качества</t>
+  </si>
+  <si>
+    <t>Гимназия г.Дзержинкска</t>
+  </si>
+  <si>
+    <t>Дзержинск</t>
+  </si>
+  <si>
+    <t>ЧП</t>
+  </si>
+  <si>
+    <t>Ждан</t>
+  </si>
+  <si>
+    <t>РичБрэйнсСолюшенс</t>
+  </si>
+  <si>
+    <t>ПолнНазваОрганизации</t>
+  </si>
+  <si>
+    <t>Средняя школа №101 г.Минска</t>
+  </si>
+  <si>
+    <t>ПолнНазваОрг</t>
+  </si>
+  <si>
+    <t>Главный элемент</t>
+  </si>
+  <si>
+    <t>Диннерсофт</t>
+  </si>
+  <si>
+    <t>ТрансферХил</t>
+  </si>
+  <si>
+    <t>Барановичи</t>
+  </si>
+  <si>
+    <t>БНТУ</t>
+  </si>
+  <si>
+    <t>Центр по обеспечению деятельности бюджетных организаций Бешенковичского района</t>
+  </si>
+  <si>
+    <t>Минский завод колесных тягачей</t>
+  </si>
+  <si>
+    <t>БНУТ, плановый отдел</t>
+  </si>
+  <si>
+    <t>ДРТ Диджитал</t>
+  </si>
+  <si>
+    <t>Королев</t>
+  </si>
+  <si>
+    <t>ЕПАМ</t>
+  </si>
+  <si>
+    <t>Эффективные программы</t>
+  </si>
+  <si>
+    <t>Белорусские облачные технологии</t>
+  </si>
+  <si>
+    <t>ИУП</t>
+  </si>
+  <si>
+    <t>СтилЛедиМакс</t>
+  </si>
+  <si>
+    <t>Борисов</t>
+  </si>
+  <si>
+    <t>Борисовский завод медицинских препаратов</t>
+  </si>
+  <si>
+    <t>Спираль Скаут</t>
+  </si>
+  <si>
+    <t>Байт протект</t>
+  </si>
+  <si>
+    <t>Атлант</t>
+  </si>
+  <si>
+    <t>Полоцкий комбинат хлебопродуктов</t>
+  </si>
+  <si>
+    <t>Софтарекс Технолоджиес</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1629,6 +1692,21 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1692,7 +1770,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1854,12 +1932,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1907,12 +1998,39 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1949,6 +2067,26 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -2060,24 +2198,23 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2178,16 +2315,6 @@
         </top>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
@@ -2216,6 +2343,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>все студенты</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2413,10 +2565,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2524,7 +2676,723 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>ПОИТ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C21B-4668-8DD2-D755AB689619}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C21B-4668-8DD2-D755AB689619}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>ПОИТ!$L$111:$L$115</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(ПОИТ!$L$111,ПОИТ!$L$115)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>всего дог.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>нет дог.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>ПОИТ!$M$111:$M$115</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(ПОИТ!$M$111,ПОИТ!$M$115)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions/>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8555-47A1-BA5E-5505CAC8BA47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>ИСИТ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5711-4C7F-A1E8-A872482FC21A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5711-4C7F-A1E8-A872482FC21A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ИСИТ САПР'!$J$97:$J$101</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('ИСИТ САПР'!$J$97,'ИСИТ САПР'!$J$101)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>всего дог.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>нет дог.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ИСИТ САПР'!$K$97:$K$101</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('ИСИТ САПР'!$K$97,'ИСИТ САПР'!$K$101)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions/>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0BD-4FF5-B1C3-2AC2750D30EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3083,20 +3951,1058 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3121,28 +5027,108 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3667125</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38265080-4AF0-EA47-A671-09FDA6AF5262}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2609849</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22FA35E-A614-E677-F2D7-CE53B76E1CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D4A88F3-6F86-4C3E-9779-914C3E7CB18A}" name="Таблица3" displayName="Таблица3" ref="A1:K101" totalsRowShown="0" tableBorderDxfId="14">
-  <autoFilter ref="A1:K101" xr:uid="{5D4A88F3-6F86-4C3E-9779-914C3E7CB18A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D4A88F3-6F86-4C3E-9779-914C3E7CB18A}" name="Таблица3" displayName="Таблица3" ref="A1:L101" totalsRowShown="0" tableBorderDxfId="16">
+  <autoFilter ref="A1:L101" xr:uid="{5D4A88F3-6F86-4C3E-9779-914C3E7CB18A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L101">
     <sortCondition ref="B1:B101"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{2BCF05C1-1BAE-451F-92FA-8BBBEA61EBB0}" name="Столбец1"/>
     <tableColumn id="2" xr3:uid="{A2D15B5C-BAB1-43D7-9603-A80C48D8D9A5}" name="Фамилия"/>
     <tableColumn id="3" xr3:uid="{D83DC354-D0A5-4D30-A4CA-701D8DEA39C1}" name="Имя"/>
     <tableColumn id="4" xr3:uid="{F617857B-ACD2-4BDA-B816-FC04456D25BE}" name="Отчество"/>
     <tableColumn id="5" xr3:uid="{3E97C8B2-5E3A-450F-91ED-FC2B356FA028}" name="Стоимость обучения"/>
     <tableColumn id="6" xr3:uid="{BEB8B1B7-2B11-4599-8333-07D2D80B3C1E}" name="Номер группы"/>
-    <tableColumn id="7" xr3:uid="{7D0B6F0A-E92A-4FB8-AF6F-0A9CCA4BE6AE}" name="№ дог" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{E55263BA-7052-4956-AEAB-93F258589CB9}" name="ООО" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{184A24AC-F20E-45A3-B91B-E0507517F8C5}" name="НазваОрганизации " dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{AEF8916A-D687-4E15-9098-947CDA9CBA8A}" name="город" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{5EB21B7A-294D-4BE5-AFFF-EAD1BC154927}" name="полное имя" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{7D0B6F0A-E92A-4FB8-AF6F-0A9CCA4BE6AE}" name="№ дог" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{E55263BA-7052-4956-AEAB-93F258589CB9}" name="ООО" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{184A24AC-F20E-45A3-B91B-E0507517F8C5}" name="НазваОрганизации " dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{AEF8916A-D687-4E15-9098-947CDA9CBA8A}" name="город" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{5EB21B7A-294D-4BE5-AFFF-EAD1BC154927}" name="полное имя" dataDxfId="11">
       <calculatedColumnFormula>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{09E0A634-33CA-4286-A0D2-40B10B6E009D}" name="ПолнНазваОрганизации" dataDxfId="10">
+      <calculatedColumnFormula>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3150,23 +5136,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15704C1D-4351-47CB-89B9-0F8A925C15EC}" name="Таблица4" displayName="Таблица4" ref="A1:K93" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:K93" xr:uid="{15704C1D-4351-47CB-89B9-0F8A925C15EC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K93">
-    <sortCondition ref="B1:B93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15704C1D-4351-47CB-89B9-0F8A925C15EC}" name="Таблица4" displayName="Таблица4" ref="A1:L94" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:L94" xr:uid="{15704C1D-4351-47CB-89B9-0F8A925C15EC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L94">
+    <sortCondition ref="B1:B94"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{3810A656-4E1C-4D29-A1D5-BB6E47F0C79D}" name="#"/>
     <tableColumn id="2" xr3:uid="{C5A89099-472C-49C2-BF6D-E0367855D23C}" name="Фамилия"/>
     <tableColumn id="3" xr3:uid="{204A9B0D-F932-448D-AB95-2026F521D853}" name="Имя"/>
     <tableColumn id="4" xr3:uid="{F6AD8478-8133-48E8-AFD5-3F5ED8B6871F}" name="Отчество"/>
     <tableColumn id="5" xr3:uid="{13257A0C-F2A4-4507-AC67-5ACF34DE2F9D}" name="Стоимость обучения"/>
     <tableColumn id="6" xr3:uid="{28865E9E-1E0A-457E-ABD3-07CB9D0AEF66}" name="Номер группы"/>
-    <tableColumn id="7" xr3:uid="{BF8E48F7-3FE7-4104-863B-722E8DE07F65}" name="№ дог" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{B4C9AA2D-3D7C-4BBC-BDD3-D2DC631E8C5D}" name="ООО" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{E4AD8051-EEC7-4E22-9866-6A1334DDA1ED}" name="НазваОрганизации " dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{BE8E4589-33F8-4634-B5EF-F51F50B5D53F}" name="город" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{62255920-6861-4C44-9A1D-F1192A8E0CC2}" name="полное имя" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{BF8E48F7-3FE7-4104-863B-722E8DE07F65}" name="№ дог" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{B4C9AA2D-3D7C-4BBC-BDD3-D2DC631E8C5D}" name="ООО" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{E4AD8051-EEC7-4E22-9866-6A1334DDA1ED}" name="НазваОрганизации " dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{BE8E4589-33F8-4634-B5EF-F51F50B5D53F}" name="город" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{0F1AD8A3-DC62-4C29-ACAC-6C357838FE56}" name="ПолнНазваОрг" dataDxfId="4">
+      <calculatedColumnFormula>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{62255920-6861-4C44-9A1D-F1192A8E0CC2}" name="полное имя" dataDxfId="3">
       <calculatedColumnFormula>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3175,7 +5164,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4A109A3-0C47-4E0D-A26E-2309EC441F7F}" name="Таблица2" displayName="Таблица2" ref="A1:H7" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4A109A3-0C47-4E0D-A26E-2309EC441F7F}" name="Таблица2" displayName="Таблица2" ref="A1:H7" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:H7" xr:uid="{E4A109A3-0C47-4E0D-A26E-2309EC441F7F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6104A72F-45B5-457D-9A38-0AFEEFA8126E}" name="№пп"/>
@@ -3478,10 +5467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CE1DC5-6B57-4982-A3B8-DA6FAC811A8F}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3496,11 +5485,11 @@
     <col min="9" max="9" width="66.140625" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="70.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>324</v>
       </c>
@@ -3534,8 +5523,11 @@
       <c r="K1" s="7" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32664</v>
       </c>
@@ -3559,8 +5551,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v xml:space="preserve">Абдикаримов Хасан </v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="31" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>857</v>
       </c>
@@ -3583,20 +5579,24 @@
         <v>176</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K3" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Аверков Илья Александрович</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ГУО «Средняя школа №72 г.Минска», г.Минск</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2894</v>
       </c>
@@ -3622,17 +5622,21 @@
         <v>321</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K4" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Акимов Егор Сергеевич</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «НетКрэкерБел», г.Минск</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7248</v>
       </c>
@@ -3656,8 +5660,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v xml:space="preserve">Али Марван Абдулкарим Фархан Ахмед </v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23617</v>
       </c>
@@ -3681,8 +5689,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v xml:space="preserve">Альмохлеф Ахмад Абдульвахаб </v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5155</v>
       </c>
@@ -3709,8 +5721,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Асветимский Виталий Дмитриевич</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2215</v>
       </c>
@@ -3730,21 +5746,27 @@
         <v>10701220</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="I8" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Асташкевич Степан Константинович</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Софтарекс Технолоджиес», г.Минск</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4916</v>
       </c>
@@ -3771,8 +5793,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Бончик Максим Витальевич</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>23636</v>
       </c>
@@ -3796,8 +5822,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v xml:space="preserve">Ботиров Джахонгир </v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5953</v>
       </c>
@@ -3820,20 +5850,24 @@
         <v>125</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K11" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Бохонко Артём Олегович</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ГУО «Средняя школа №14 г.Мозыря», г.Мозырь</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7081</v>
       </c>
@@ -3856,17 +5890,21 @@
         <v>321</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K12" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v xml:space="preserve">Бояринов Владислав </v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «СтримДекор», г.Минск</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6674</v>
       </c>
@@ -3893,8 +5931,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Буксов Никита Андреевич</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6930</v>
       </c>
@@ -3918,17 +5960,21 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K14" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Верхов Александр Михайлович</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «Ассоциация любительского спорта», г.Минск</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6832</v>
       </c>
@@ -3951,18 +5997,24 @@
         <v>162</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>431</v>
+        <v>344</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>456</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="K15" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Викторова Мелания Александровна</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ЗАО «Главный элемент», г.Минск</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7010</v>
       </c>
@@ -3989,8 +6041,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Волынец Александр Владимирович</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1331</v>
       </c>
@@ -4016,15 +6072,21 @@
         <v>321</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="J17" s="3"/>
+        <v>421</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="K17" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Гаврилов Денис Александрович</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Меркелеон девелопмент», г.Минск</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25381</v>
       </c>
@@ -4048,17 +6110,21 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K18" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Гальцов Богдан Викторович</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «Минское городское управление Фонда социальной защиты населения», г.Минск</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6940</v>
       </c>
@@ -4085,8 +6151,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Германович Антон Андреевич</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2946</v>
       </c>
@@ -4112,17 +6182,21 @@
         <v>321</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K20" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Грибчук Алексей Олегович</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Саппорт Деск Технолоджис», г.Минск</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4407</v>
       </c>
@@ -4146,8 +6220,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v xml:space="preserve">Далкылыч Халил Беркан </v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3766</v>
       </c>
@@ -4173,17 +6251,21 @@
         <v>321</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K22" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Данилевич Александра Николаевна</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «СМ Технолоджис», г.Минск</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4259</v>
       </c>
@@ -4209,15 +6291,21 @@
         <v>321</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J23" s="3"/>
+        <v>416</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="K23" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Даркович Владислав Сергеевич</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «ПСТ Лабс», г.Минск</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4431</v>
       </c>
@@ -4241,8 +6329,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v xml:space="preserve">Дастоури Амир Мохаммад </v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3373</v>
       </c>
@@ -4268,17 +6360,21 @@
         <v>321</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K25" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Дроздов Александр Сергеевич</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «ОЗМ-ПРОЕКТ», г.Могилев</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>38508</v>
       </c>
@@ -4304,17 +6400,21 @@
         <v>321</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K26" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Дырда Кирилл Олегович</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Лотиком», г.Минск</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23440</v>
       </c>
@@ -4341,8 +6441,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Жабра Гияс Айман</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5307</v>
       </c>
@@ -4365,20 +6469,24 @@
         <v>172</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K28" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Жаркевич Александра Алексеевна</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ГУО «Соредняя школа №101 г.Минска», г.Минск</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>38509</v>
       </c>
@@ -4404,17 +6512,21 @@
         <v>321</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K29" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Журомский Александр Алексеевич</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Ай Ти Дистрибуция», г.Минск</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>38466</v>
       </c>
@@ -4441,8 +6553,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Захаревский Константин Александрович</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4478</v>
       </c>
@@ -4465,20 +6581,24 @@
         <v>171</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K31" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Кардаш Евгений Андреевич</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ГУО «Средняя школа №101 г.Минска», г.Минск</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>38511</v>
       </c>
@@ -4505,8 +6625,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Карпик Кирилл Алексеевич</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31881</v>
       </c>
@@ -4529,18 +6653,24 @@
         <v>130</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="J33" s="3"/>
+        <v>385</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="K33" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Карпушевич Оксана Васильевна</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ОАО «"АМКОДОР" - управляющая компания холдинга», г.Минск</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>19653</v>
       </c>
@@ -4567,8 +6697,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Касперович Михаил Игоревич</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>38512</v>
       </c>
@@ -4594,15 +6728,21 @@
         <v>321</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="J35" s="3"/>
+        <v>420</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="K35" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Кизаев Роман Александрович</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Даталайз», г.Минск</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3131</v>
       </c>
@@ -4622,21 +6762,27 @@
         <v>10701320</v>
       </c>
       <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="I36" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="K36" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Ковалёв Никита Дмитриевич</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Софтарекс Технолоджиес», г.Минск</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5113</v>
       </c>
@@ -4659,20 +6805,24 @@
         <v>112</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K37" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Ковальчук Владислав Олегович</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ЗАО «Интернет-магазин Евроопт», г.Минск</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1045</v>
       </c>
@@ -4699,8 +6849,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Кожан Иван Геннадьевич</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2152</v>
       </c>
@@ -4723,20 +6877,24 @@
         <v>123</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K39" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Кононович Владислав Сергеевич</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ОАО «Пинское промышленно-торговое объединение "Полесье"», г.Пинск</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5025</v>
       </c>
@@ -4759,20 +6917,24 @@
         <v>133</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K40" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Константинов Никита Сергеевич</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ЗАО «МЕБИУС-К», г.Минск</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38514</v>
       </c>
@@ -4799,8 +6961,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Корзун Ян Павлович</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6504</v>
       </c>
@@ -4819,16 +6985,28 @@
       <c r="F42">
         <v>10701320</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="G42" s="2">
+        <v>193</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="K42" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Корик Владислав Дмитриевич</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ЗАО «Атлант», г.Минск</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2220</v>
       </c>
@@ -4851,20 +7029,24 @@
         <v>142</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K43" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Костин Иван Сергеевич</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>РУПТП «Оршанский льнокомбинат», г.Орша</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>24100</v>
       </c>
@@ -4888,8 +7070,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v xml:space="preserve">Кувондиков Нуриддин </v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4601</v>
       </c>
@@ -4915,17 +7101,21 @@
         <v>321</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K45" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Кудласевич Дмитрий Романович</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Модсен», г.Минск</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6509</v>
       </c>
@@ -4948,20 +7138,24 @@
         <v>179</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K46" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Куксо Артём Игоревич</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ЗАО «Банк роста и развития бизнеса», г.Минск</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6676</v>
       </c>
@@ -4988,8 +7182,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Кунцевич Артем Валентинович</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>757</v>
       </c>
@@ -5008,16 +7206,28 @@
       <c r="F48">
         <v>10701120</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="G48" s="2">
+        <v>184</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="K48" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Купреев Никита Сергеевич</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «РичБрэйнсСолюшенс», г.Минск</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4643</v>
       </c>
@@ -5043,17 +7253,21 @@
         <v>321</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K49" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Купченко Анастасия Ивановна</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Солидекс», г.Минск</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>38516</v>
       </c>
@@ -5080,8 +7294,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Курач Никита Владимирович</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6926</v>
       </c>
@@ -5104,27 +7322,31 @@
         <v>122</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K51" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Лашукевич Кирилл Дмитриевич</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ГУП «Национальное кадастровое агенство», г.Минск</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2235</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D52" t="s">
@@ -5136,28 +7358,32 @@
       <c r="F52">
         <v>10701320</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="27">
         <v>167</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>439</v>
+      <c r="H52" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>467</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="K52" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Лесько Артём Олегович</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Эффективные программы», г.Минск</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5667</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C53" t="s">
@@ -5172,16 +7398,28 @@
       <c r="F53">
         <v>10701120</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="G53" s="2">
+        <v>190</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="K53" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Ляликов Иван Владимирович</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ЧПУП «СтилЛедиМакс», г.Борисов</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6890</v>
       </c>
@@ -5204,20 +7442,24 @@
         <v>177</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K54" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Маловичко Матвей Андреевич</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ИП «ВЕЗА-Г», г.Минск</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>24126</v>
       </c>
@@ -5241,8 +7483,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v xml:space="preserve">Мамедов Самир </v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4437</v>
       </c>
@@ -5261,16 +7507,28 @@
       <c r="F56">
         <v>10701320</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="G56" s="2">
+        <v>165</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="K56" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Мартынов Алексей Андреевич</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Модсен», г.Минск</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>38517</v>
       </c>
@@ -5293,20 +7551,24 @@
         <v>147</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K57" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Мацуцин Никита Владленович</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ГНУ «Объединенный институт машиностроения НАН Беларуси», г.Минск</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6637</v>
       </c>
@@ -5333,12 +7595,16 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Милькевич Павел Андреевич</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4694</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="36" t="s">
         <v>125</v>
       </c>
       <c r="C59" t="s">
@@ -5357,20 +7623,24 @@
         <v>121</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K59" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Морозов Дмитрий Александрович</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ОАО «Газпром трансгаз Беларусь», г.Орша</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>38518</v>
       </c>
@@ -5396,17 +7666,21 @@
         <v>321</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K60" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Непогода Егор Сергеевич</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Траектория качества», г.Минск</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2519</v>
       </c>
@@ -5432,17 +7706,21 @@
         <v>321</v>
       </c>
       <c r="I61" s="27" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K61" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Нестеров Филипп Сергеевич</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Е-Сервисторг», г.Минск</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5610</v>
       </c>
@@ -5468,17 +7746,21 @@
         <v>321</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K62" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Носович Антон Викторович</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «СтримДекор», г.Минск</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1149</v>
       </c>
@@ -5497,16 +7779,28 @@
       <c r="F63">
         <v>10701120</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="G63" s="2">
+        <v>187</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="K63" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Оксенюк Антон Александрович</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «ДРТ Диджитал», г.Минск</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4435</v>
       </c>
@@ -5533,8 +7827,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Омар Мохамед Фатхи Абделькадер Ибрагим</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2231</v>
       </c>
@@ -5561,8 +7859,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Павлов Владислав Дмитриевич</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3372</v>
       </c>
@@ -5582,21 +7884,27 @@
         <v>10701220</v>
       </c>
       <c r="G66" s="2">
-        <v>1</v>
-      </c>
-      <c r="H66" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="I66" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="K66" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Павлович Иван Сергеевич</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Софтарекс Технолоджиес», г.Минск</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5661</v>
       </c>
@@ -5619,20 +7927,24 @@
         <v>104</v>
       </c>
       <c r="H67" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="K67" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Попков Андрей Валерьевич</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ОАО «Гомельтраснефть Дружба», г.Новополоцк</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3334</v>
       </c>
@@ -5659,8 +7971,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Потапенко Егор Александрович</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1846</v>
       </c>
@@ -5683,20 +7999,24 @@
         <v>137</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K69" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Правошинский Владислав Михайлович</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ОАО «Минский электротехнический завод им. Козлова», г.Минск</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5952</v>
       </c>
@@ -5723,8 +8043,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Прокопчук Егор Александрович</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6805</v>
       </c>
@@ -5750,17 +8074,21 @@
         <v>321</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K71" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Рудоловский Максим Николаевич</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Модсен», г.Минск</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2891</v>
       </c>
@@ -5787,8 +8115,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Русак Алексей Владимирович</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1067</v>
       </c>
@@ -5815,72 +8147,84 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Савельев Максим Вячеславович</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>6946</v>
+        <v>2939</v>
       </c>
       <c r="B74" t="s">
         <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F74">
-        <v>10701320</v>
-      </c>
-      <c r="G74" s="2">
-        <v>105</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>326</v>
-      </c>
+        <v>10701220</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
       <c r="K74" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
-        <v>Савицкий Артём Сергеевич</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Савицкий Владимир Андреевич</v>
+      </c>
+      <c r="L74" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2939</v>
+        <v>6946</v>
       </c>
       <c r="B75" t="s">
         <v>146</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F75">
-        <v>10701220</v>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+        <v>10701320</v>
+      </c>
+      <c r="G75" s="2">
+        <v>105</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="K75" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
-        <v>Савицкий Владимир Андреевич</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Савицкий Артём Сергеевич</v>
+      </c>
+      <c r="L75" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Валекс ЭДУ», г.Минск</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4508</v>
       </c>
@@ -5907,8 +8251,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Селявко Тимофей Владимирович</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4779</v>
       </c>
@@ -5934,17 +8282,21 @@
         <v>321</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K77" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Силков Максим Сергеевич</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Модсен», г.Минск</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>38519</v>
       </c>
@@ -5970,17 +8322,21 @@
         <v>321</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K78" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Синевич Владислав Дмитриевич</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Инноватек», г.Минск</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>739</v>
       </c>
@@ -6000,21 +8356,27 @@
         <v>10701320</v>
       </c>
       <c r="G79" s="2">
-        <v>1</v>
-      </c>
-      <c r="H79" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="I79" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J79" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="K79" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Солодков Арсений Владимирович</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Софтарекс Технолоджиес», г.Минск</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5619</v>
       </c>
@@ -6037,18 +8399,24 @@
         <v>156</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="J80" s="3"/>
+        <v>419</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="K80" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Стрижанов Иван Валерьевич</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>РНПУП «Центр радиотехники Национальной академии наук Беларуси», г.Минск</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2021</v>
       </c>
@@ -6075,8 +8443,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Терещенко Максим Андреевич</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3963</v>
       </c>
@@ -6102,15 +8474,21 @@
         <v>321</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="J82" s="3"/>
+        <v>422</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="K82" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Тимошевич Егор Игоревич</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Ивашин», г.Минск</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4768</v>
       </c>
@@ -6137,8 +8515,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Филиппович Владислав Александрович</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>7097</v>
       </c>
@@ -6165,8 +8547,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Хаммуд Мохамад Хассан</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>22850</v>
       </c>
@@ -6189,20 +8575,24 @@
         <v>124</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K85" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Цынкевич Глеб Владимирович</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ГУО «Средняя школа №72 г.Минска», г.Минск</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2037</v>
       </c>
@@ -6229,8 +8619,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Чевычелов Илья Русланович</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3196</v>
       </c>
@@ -6257,8 +8651,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Чернаускас Артем Андреевич</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>38520</v>
       </c>
@@ -6281,20 +8679,24 @@
         <v>138</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K88" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Чернейко Мирон Андреевич</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ГП «НИИ ТЗИ», г.Минск</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4915</v>
       </c>
@@ -6317,20 +8719,24 @@
         <v>103</v>
       </c>
       <c r="H89" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="J89" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="K89" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Чижик Артём Александрович</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ЧПУП «Ромгиль-Текс», г.Слоним</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4949</v>
       </c>
@@ -6357,8 +8763,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Чубрик Мария Владимировна</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4852</v>
       </c>
@@ -6381,20 +8791,24 @@
         <v>170</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K91" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Шарапа Владислав Юрьевич</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>РУП «Белтаможсервис», г.Минск</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>38515</v>
       </c>
@@ -6421,8 +8835,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Шелег Алексей Евгеньевич</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4433</v>
       </c>
@@ -6449,8 +8867,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Шериф Фуад Мохамед Аллам</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>6822</v>
       </c>
@@ -6476,17 +8898,21 @@
         <v>321</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K94" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Шлома Иван Михайлович</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «ПКП АТП», г.Минск</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>6807</v>
       </c>
@@ -6513,8 +8939,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Шлык Виктория Валентиновна</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>832</v>
       </c>
@@ -6540,15 +8970,19 @@
         <v>321</v>
       </c>
       <c r="I96" s="24" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="J96" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K96" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Шубелько Максим Александрович</v>
       </c>
+      <c r="L96" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Эксперт Софтваре Девелопмент», г.Минск</v>
+      </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
@@ -6573,18 +9007,22 @@
         <v>134</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I97" s="23" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K97" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Шуманский Александр Сергеевич</v>
       </c>
+      <c r="L97" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ОАО «Сберегательный банк "Беларусбанк"», г.Минск</v>
+      </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -6609,18 +9047,22 @@
         <v>118</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K98" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Шуров Глеб Олегович</v>
       </c>
+      <c r="L98" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ИУНПП «САМСОЛЮШНС», г.Минск</v>
+      </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -6642,18 +9084,24 @@
         <v>10701120</v>
       </c>
       <c r="G99" s="2">
-        <v>1</v>
-      </c>
-      <c r="H99" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="I99" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J99" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="K99" t="str">
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v>Щабловский Даниил Андреевич</v>
+      </c>
+      <c r="L99" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v>ООО «Софтарекс Технолоджиес», г.Минск</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -6680,8 +9128,12 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v xml:space="preserve">Эль Кадмири Яхья </v>
       </c>
+      <c r="L100" s="3" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
       <c r="M100" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6708,9 +9160,13 @@
         <f>CONCATENATE(Таблица3[[#This Row],[Фамилия]]," ",Таблица3[[#This Row],[Имя]]," ",Таблица3[[#This Row],[Отчество]])</f>
         <v xml:space="preserve">Ялчынкая Озгюр </v>
       </c>
+      <c r="L101" s="32" t="str">
+        <f>CONCATENATE(Таблица3[[#This Row],[ООО]]," «",Таблица3[[#This Row],[НазваОрганизации ]],"», г.",Таблица3[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
       <c r="M101" s="5">
-        <f>'ИСИТ САПР'!M94</f>
-        <v>181</v>
+        <f>'ИСИТ САПР'!N95</f>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6720,28 +9176,28 @@
       </c>
       <c r="G102" s="11">
         <f>SUBTOTAL(104,G2:G101)</f>
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="I102" s="8">
         <f>COUNTA(Таблица3[[НазваОрганизации ]])</f>
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G103" s="5">
         <f>M101</f>
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="L103" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M103" s="15">
-        <f>'ИСИТ САПР'!M96</f>
-        <v>99</v>
+        <f>'ИСИТ САПР'!N97</f>
+        <v>114</v>
       </c>
       <c r="N103" s="16">
         <f>M103/M105</f>
-        <v>0.515625</v>
+        <v>0.59067357512953367</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -6750,11 +9206,11 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L105" s="19" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M105" s="13">
-        <f>SUM(B102,'ИСИТ САПР'!B94)</f>
-        <v>192</v>
+        <f>SUM(B102,'ИСИТ САПР'!B95)</f>
+        <v>193</v>
       </c>
       <c r="N105" s="18"/>
     </row>
@@ -6764,20 +9220,64 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L107" s="20" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M107" s="21">
         <f>M105-M103</f>
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="N107" s="22">
         <f>M107/M105</f>
-        <v>0.484375</v>
+        <v>0.40932642487046633</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L111" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="M111" s="15">
+        <f>I102</f>
+        <v>59</v>
+      </c>
+      <c r="N111" s="16">
+        <f>M111/M113</f>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L112" s="17"/>
+      <c r="N112" s="18"/>
+    </row>
+    <row r="113" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L113" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="M113" s="13">
+        <f>B102</f>
+        <v>100</v>
+      </c>
+      <c r="N113" s="18"/>
+    </row>
+    <row r="114" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L114" s="17"/>
+      <c r="N114" s="18"/>
+    </row>
+    <row r="115" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L115" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="M115" s="21">
+        <f>M113-M111</f>
+        <v>41</v>
+      </c>
+      <c r="N115" s="22">
+        <f>M115/M113</f>
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$M$101</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6792,10 +9292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0832CED-41E7-474E-B529-C4D22939F02E}">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6810,10 +9310,11 @@
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
     <col min="9" max="9" width="83.28515625" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="76.85546875" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6845,10 +9346,13 @@
         <v>320</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6457</v>
       </c>
@@ -6872,11 +9376,15 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L2" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Арико Вадим Русланович</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5525</v>
       </c>
@@ -6902,17 +9410,21 @@
         <v>321</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K3" t="str">
+        <v>325</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Нива-Мотор», г.Минск</v>
+      </c>
+      <c r="L3" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Ашейчик Дарья Сергеевна</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4443</v>
       </c>
@@ -6931,16 +9443,28 @@
       <c r="F4">
         <v>10702120</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="G4" s="2">
+        <v>192</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="K4" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Спираль Скаут», г.Минск</v>
+      </c>
+      <c r="L4" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Белый Егор Викторович</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>31806</v>
       </c>
@@ -6964,11 +9488,15 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L5" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Бобров Павел Аркадьевич</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5987</v>
       </c>
@@ -6988,21 +9516,27 @@
         <v>10702120</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="I6" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K6" t="str">
+      <c r="K6" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Софтарекс Технолоджиес», г.Минск</v>
+      </c>
+      <c r="L6" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Бобровко Владислав Валерьевич</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4288</v>
       </c>
@@ -7026,11 +9560,15 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L7" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Бойко Богдан Геннадьевич</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1416</v>
       </c>
@@ -7056,17 +9594,21 @@
         <v>321</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K8" t="str">
+        <v>325</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Мегаполис Инвест», г.Минск</v>
+      </c>
+      <c r="L8" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Болотько Александр Леонидович</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2207</v>
       </c>
@@ -7090,11 +9632,15 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L9" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Вашковец Даниил Дмитриевич</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4499</v>
       </c>
@@ -7118,11 +9664,15 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L10" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Веремейчик Александр Валерьевич</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5085</v>
       </c>
@@ -7148,17 +9698,21 @@
         <v>321</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K11" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Строительная компания "Прометей"», г.Горки</v>
+      </c>
+      <c r="L11" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Винник Кирилл Владимирович</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2225</v>
       </c>
@@ -7182,11 +9736,15 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L12" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Войда Иван Дмитриевич</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3113</v>
       </c>
@@ -7209,20 +9767,24 @@
         <v>126</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="K13" t="str">
+        <v>379</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>РУП «Ошмянское РУП ЖКХ», г.Ошмяны</v>
+      </c>
+      <c r="L13" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Володько Вадим Артурович</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5148</v>
       </c>
@@ -7246,11 +9808,15 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L14" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Гип София Владимировна</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5499</v>
       </c>
@@ -7270,21 +9836,27 @@
         <v>10702320</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="I15" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K15" t="str">
+      <c r="K15" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Софтарекс Технолоджиес», г.Минск</v>
+      </c>
+      <c r="L15" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Гойлик Дмитрий Валерьевич</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3069</v>
       </c>
@@ -7304,21 +9876,27 @@
         <v>10702220</v>
       </c>
       <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="I16" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K16" t="str">
+      <c r="K16" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Софтарекс Технолоджиес», г.Минск</v>
+      </c>
+      <c r="L16" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Григелевич Станислав Павлович</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3159</v>
       </c>
@@ -7342,11 +9920,15 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L17" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Гузаревич Елизавета Игоревна</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4457</v>
       </c>
@@ -7369,20 +9951,24 @@
         <v>168</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K18" t="str">
+        <v>325</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ОАО «Белагропромбанк», г.Минск</v>
+      </c>
+      <c r="L18" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Давидович Елизавета Николаевна</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6818</v>
       </c>
@@ -7408,17 +9994,21 @@
         <v>321</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K19" t="str">
+        <v>325</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Модсен», г.Минск</v>
+      </c>
+      <c r="L19" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Демянко Кирилл Андреевич</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6121</v>
       </c>
@@ -7437,24 +10027,28 @@
       <c r="F20">
         <v>10702120</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="2">
         <v>135</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>321</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" t="str">
+        <v>325</v>
+      </c>
+      <c r="K20" s="33" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Эксперт Софтваре Девелопмент», г.Минск</v>
+      </c>
+      <c r="L20" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Долгий Владимир Владимирович</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6609</v>
       </c>
@@ -7478,11 +10072,15 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L21" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Дудюк Богдан Сергеевич</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4139</v>
       </c>
@@ -7506,11 +10104,15 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L22" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Евсеев Максим Дмитриевич</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>899</v>
       </c>
@@ -7533,20 +10135,24 @@
         <v>143</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K23" t="str">
+        <v>325</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>РУП «БЕЛТЕЛЕКОМ», г.Минск</v>
+      </c>
+      <c r="L23" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Емельянов Роман Андреевич</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6892</v>
       </c>
@@ -7565,16 +10171,28 @@
       <c r="F24">
         <v>10702320</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="G24" s="2">
+        <v>186</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="K24" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «ТрансферХил», г.Барановичи</v>
+      </c>
+      <c r="L24" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Ерохин Кирилл Максимович</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>853</v>
       </c>
@@ -7598,11 +10216,15 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L25" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Жердецкая Аделина Сергеевна</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3584</v>
       </c>
@@ -7625,20 +10247,24 @@
         <v>144</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K26" t="str">
+        <v>325</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>СООО «Интеликс Бел», г.Минск</v>
+      </c>
+      <c r="L26" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Зайцев Артём Вячеславович</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5980</v>
       </c>
@@ -7662,11 +10288,15 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L27" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Заяц Никита Александрович</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23905</v>
       </c>
@@ -7687,11 +10317,15 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L28" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v xml:space="preserve">Ирония Седраха Чима </v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>850</v>
       </c>
@@ -7715,11 +10349,15 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L29" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Казыро Илья Александрович</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6109</v>
       </c>
@@ -7743,11 +10381,15 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L30" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Касперович Илья Олегович</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20479</v>
       </c>
@@ -7770,20 +10412,24 @@
         <v>152</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="K31" t="str">
+        <v>413</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>РУП «Жлобинский филиал Гомельское агенство по государственной регистрации и земельному кадастру», г.Жлобин</v>
+      </c>
+      <c r="L31" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Кириленко Егор Вадимович</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>904</v>
       </c>
@@ -7806,20 +10452,24 @@
         <v>153</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K32" t="str">
+        <v>325</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ЗАО «БЕЛРОБОТ», г.Минск</v>
+      </c>
+      <c r="L32" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Кириллов Станислав Вячеславович</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1367</v>
       </c>
@@ -7845,17 +10495,21 @@
         <v>321</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K33" t="str">
+        <v>325</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Фабрика инноваций и решений», г.Минск</v>
+      </c>
+      <c r="L33" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Кирющева Алёна Александровна</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3041</v>
       </c>
@@ -7875,21 +10529,27 @@
         <v>10702120</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="I34" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K34" t="str">
+      <c r="K34" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Софтарекс Технолоджиес», г.Минск</v>
+      </c>
+      <c r="L34" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Кихтенко Ольга Юрьевна</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6310</v>
       </c>
@@ -7915,17 +10575,21 @@
         <v>321</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K35" t="str">
+        <v>325</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «ЕМК Софт», г.Минск</v>
+      </c>
+      <c r="L35" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Кишкурно Мария Вячеславовна</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5909</v>
       </c>
@@ -7949,11 +10613,15 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L36" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Клещенок Валерий Александрович</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2411</v>
       </c>
@@ -7977,11 +10645,15 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L37" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Комисарчук Марина Сергеевна</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2780</v>
       </c>
@@ -8000,16 +10672,28 @@
       <c r="F38">
         <v>10702320</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" t="str">
+      <c r="G38" s="2">
+        <v>188</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" s="36" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Белорусские облачные технологии», г.Минск</v>
+      </c>
+      <c r="L38" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Коноплёв Александр Валентинович</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1407</v>
       </c>
@@ -8032,222 +10716,262 @@
         <v>160</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K39" t="str">
+        <v>325</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ОАО «ИнДев Солюшенс», г.Минск</v>
+      </c>
+      <c r="L39" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Кораневский Виктор Геннадьевич</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1838</v>
-      </c>
-      <c r="B40" t="s">
-        <v>213</v>
-      </c>
-      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
+      <c r="E40" s="26"/>
       <c r="F40">
         <v>10702120</v>
       </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="2" t="s">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ЕПАМ «», г.</v>
+      </c>
+      <c r="L40" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
+        <v>Королев Павел Игоревич</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1838</v>
+      </c>
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>10702120</v>
+      </c>
+      <c r="G41" s="2">
+        <v>195</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K40" t="str">
+      <c r="K41" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Софтарекс Технолоджиес», г.Минск</v>
+      </c>
+      <c r="L41" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Крикунов Павел Игоревич</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>2380</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>214</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>215</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>194</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>8</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>10702120</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G42" s="2">
         <v>102</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K41" t="str">
+      <c r="H42" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ОАО «Минский завод колесных тягачей», г.Минск</v>
+      </c>
+      <c r="L42" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Кусакова Светлана Сергеевна</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>4325</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>303</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>107</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42">
-        <v>10702420</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" t="str">
-        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
-        <v>Кухта Артем Сергеевич</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>4142</v>
-      </c>
-      <c r="B43" t="s">
-        <v>240</v>
-      </c>
-      <c r="C43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D43" t="s">
-        <v>97</v>
       </c>
       <c r="E43" t="s">
         <v>15</v>
       </c>
       <c r="F43">
-        <v>10702220</v>
+        <v>10702420</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L43" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
+        <v>Кухта Артем Сергеевич</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4142</v>
+      </c>
+      <c r="B44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>10702220</v>
+      </c>
+      <c r="G44" s="2">
+        <v>189</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K44" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ИУП «САМСОЛЮШНС», г.Минск</v>
+      </c>
+      <c r="L44" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Лабузов Сергей Павлович</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>3364</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>242</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>243</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>244</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>15</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>10702220</v>
       </c>
-      <c r="G44" s="2">
-        <v>1</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="2" t="s">
+      <c r="G45" s="2">
+        <v>195</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K44" t="str">
+      <c r="K45" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Софтарекс Технолоджиес», г.Минск</v>
+      </c>
+      <c r="L45" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Левкович Екатерина Андреевна</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>3133</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>245</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>54</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>11</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>15</v>
-      </c>
-      <c r="F45">
-        <v>10702220</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" t="str">
-        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
-        <v>Маевский Антон Александрович</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>5187</v>
-      </c>
-      <c r="B46" t="s">
-        <v>246</v>
-      </c>
-      <c r="C46" t="s">
-        <v>230</v>
-      </c>
-      <c r="D46" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
       </c>
       <c r="F46">
         <v>10702220</v>
@@ -8257,1091 +10981,1263 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L46" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
+        <v>Маевский Антон Александрович</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5187</v>
+      </c>
+      <c r="B47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>10702220</v>
+      </c>
+      <c r="G47" s="2">
+        <v>185</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Диннерсофт», г.Минск</v>
+      </c>
+      <c r="L47" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Малеванный Вадим Владимирович</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>1543</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>282</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>212</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>11</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>15</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>10702320</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G48" s="2">
         <v>127</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H48" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K47" t="str">
+      <c r="J48" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K48" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>УЗ «Минская областная клиническая больница», г.Минск</v>
+      </c>
+      <c r="L48" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Манкевич Виктор Александрович</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>7035</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>283</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>91</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>22</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>8</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>10702320</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G49" s="2">
         <v>128</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" t="str">
+      <c r="I49" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K49" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Байт протект», г.Минск</v>
+      </c>
+      <c r="L49" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Марук Иван Дмитриевич</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>820</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>216</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>10</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>173</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>15</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <v>10702120</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" t="str">
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L50" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Михальченко Илья Юрьевич</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>6588</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>247</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>41</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>11</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>8</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>10702220</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G51" s="2">
         <v>164</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" t="str">
+      <c r="I51" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K51" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Энергия ГМБХ», г.Минск</v>
+      </c>
+      <c r="L51" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Михнов Александр Александрович</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>3434</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>217</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>67</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>14</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>8</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>10702120</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G52" s="2">
         <v>163</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="K51" t="str">
+      <c r="H52" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K52" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ПКУП «"Руно-Услуга" Невской Н.П.», г.Марьина Горка</v>
+      </c>
+      <c r="L52" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Невский Кирилл Сергеевич</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>5166</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>248</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>26</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>173</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>8</v>
       </c>
-      <c r="F52">
+      <c r="F53">
         <v>10702220</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" t="str">
-        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
-        <v>Невыглас Павел Юрьевич</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>750</v>
-      </c>
-      <c r="B53" t="s">
-        <v>218</v>
-      </c>
-      <c r="C53" t="s">
-        <v>212</v>
-      </c>
-      <c r="D53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53">
-        <v>10702120</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L53" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
+        <v>Невыглас Павел Юрьевич</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>750</v>
+      </c>
+      <c r="B54" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54">
+        <v>10702120</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L54" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Ничипорук Виктор Александрович</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>1988</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>304</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>13</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>14</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>15</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <v>10702420</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G55" s="2">
         <v>110</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K54" t="str">
+      <c r="I55" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K55" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Каспел-АН», г.Минск</v>
+      </c>
+      <c r="L55" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Новик Егор Сергеевич</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>5944</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>249</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>250</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>194</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>15</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <v>10702220</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G56" s="2">
         <v>169</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="K55" t="str">
+      <c r="H56" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K56" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>РУП «Витебскэнерго Филиал "Учебный центр"», г.Витебск</v>
+      </c>
+      <c r="L56" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Парахневич Елена Сергеевна</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>7005</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>284</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>36</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>14</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>8</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>10702320</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G57" s="2">
         <v>101</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K56" t="str">
+      <c r="I57" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K57" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «АКСОНИМ», г.Минск</v>
+      </c>
+      <c r="L57" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Пашков Владислав Сергеевич</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>6675</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>251</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>38</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>29</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>8</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>10702220</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" t="str">
-        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
-        <v>Половченя Никита Витальевич</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>4792</v>
-      </c>
-      <c r="B58" t="s">
-        <v>305</v>
-      </c>
-      <c r="C58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" t="s">
-        <v>306</v>
-      </c>
-      <c r="E58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58">
-        <v>10702420</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L58" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
+        <v>Половченя Никита Витальевич</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4792</v>
+      </c>
+      <c r="B59" t="s">
+        <v>305</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
+        <v>306</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59">
+        <v>10702420</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L59" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Попович Алексей Васильевич</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>3801</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>307</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>49</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>145</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>8</v>
       </c>
-      <c r="F59">
+      <c r="F60">
         <v>10702420</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G60" s="2">
         <v>146</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K59" t="str">
+      <c r="H60" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K60" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ЗАО «НТЦ КОНТНАКТ», г.Минск</v>
+      </c>
+      <c r="L60" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Пополамов Денис Вячеславович</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>2321</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>285</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>38</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>34</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>15</v>
       </c>
-      <c r="F60">
+      <c r="F61">
         <v>10702320</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G61" s="2">
         <v>175</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K60" t="str">
+      <c r="I61" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K61" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «ПроГИС», г.Минск</v>
+      </c>
+      <c r="L61" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Радюк Никита Олегович</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>6456</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <v>10702120</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G62" s="2">
         <v>4</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" t="str">
+      <c r="H62" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K62" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>дз «БНТУ», г.Минск</v>
+      </c>
+      <c r="L62" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Рахман С.М. Дарья Каблур</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>7046</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>286</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>56</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>11</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>8</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>10702320</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" t="str">
+      <c r="G63" s="2">
+        <v>183</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K63" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ЧП «Ждан», г.Минск</v>
+      </c>
+      <c r="L63" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Ревяко Алексей Александрович</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>7044</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>252</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>253</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>210</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>8</v>
       </c>
-      <c r="F63">
+      <c r="F64">
         <v>10702220</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G64" s="2">
         <v>141</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K63" t="str">
+      <c r="I64" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K64" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Белатра», г.Минск</v>
+      </c>
+      <c r="L64" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Решетникова Кристина Юрьевна</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>4169</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>146</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>187</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>14</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>8</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <v>10702420</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" t="str">
+      <c r="G65" s="2"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L65" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Савицкий Даниил Сергеевич</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>2239</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>221</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>222</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>223</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>15</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <v>10702120</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G66" s="2">
         <v>107</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K65" t="str">
+      <c r="I66" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K66" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Нива-Мотор», г.Минск</v>
+      </c>
+      <c r="L66" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Савчик Алина Олеговна</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>3473</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>308</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>309</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>14</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>15</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>10702420</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G67" s="2">
         <v>145</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="K66" t="str">
+      <c r="H67" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K67" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ОАО «"ИНТЕГРАЛ" - управляющая компания холдинга "ИНТЕГРАЛ"», г.Пинск</v>
+      </c>
+      <c r="L67" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Самуйлич Данила Сергеевич</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>25378</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>254</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>56</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>85</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>8</v>
       </c>
-      <c r="F67">
+      <c r="F68">
         <v>10702220</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G68" s="2">
         <v>141</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K67" t="str">
+      <c r="I68" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K68" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Белатра», г.Минск</v>
+      </c>
+      <c r="L68" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Самцевич Алексей Игоревич</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>6662</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>255</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>41</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>97</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>8</v>
       </c>
-      <c r="F68">
+      <c r="F69">
         <v>10702220</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G69" s="2">
         <v>149</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K68" t="str">
+      <c r="I69" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K69" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Модсен», г.Минск</v>
+      </c>
+      <c r="L69" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Светличный Александр Павлович</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>3457</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>224</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>187</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>29</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>8</v>
       </c>
-      <c r="F69">
+      <c r="F70">
         <v>10702120</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G70" s="2">
         <v>173</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K69" t="str">
+      <c r="I70" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K70" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Имэджинари студио», г.Минск</v>
+      </c>
+      <c r="L70" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Свириденко Даниил Витальевич</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>4933</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>225</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>13</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>47</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>15</v>
       </c>
-      <c r="F70">
+      <c r="F71">
         <v>10702120</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" t="str">
+      <c r="G71" s="2"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L71" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Силин Егор Владимирович</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>3497</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>256</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>13</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>22</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>15</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <v>10702220</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G72" s="2">
         <v>108</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H72" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K71" t="str">
+      <c r="J72" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K72" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>УЗ «Минская областная клиническая больница», г.Минск</v>
+      </c>
+      <c r="L72" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Синило Егор Дмитриевич</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>864</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>310</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>311</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>45</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>15</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <v>10702420</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G73" s="2">
         <v>151</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K72" t="str">
+      <c r="I73" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K73" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Техно-Скай», г.Минск</v>
+      </c>
+      <c r="L73" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Синявская Ульяна Александровна</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>4551</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>312</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>187</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>74</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>15</v>
       </c>
-      <c r="F73">
+      <c r="F74">
         <v>10702420</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G74" s="2">
         <v>2</v>
       </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="J73" s="3"/>
-      <c r="K73" t="str">
+      <c r="H74" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K74" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>дз «БНУТ, плановый отдел», г.Минск</v>
+      </c>
+      <c r="L74" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Слепцов Даниил Алексеевич</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>4582</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>257</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>136</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>47</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>15</v>
       </c>
-      <c r="F74">
+      <c r="F75">
         <v>10702220</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G75" s="2">
         <v>148</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K74" t="str">
+      <c r="I75" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K75" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Иннотех Солюшнс», г.Минск</v>
+      </c>
+      <c r="L75" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Соколовский Андрей Владимирович</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>3003</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>258</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>259</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>260</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>8</v>
       </c>
-      <c r="F75">
+      <c r="F76">
         <v>10702220</v>
       </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" t="str">
+      <c r="G76" s="2">
+        <v>194</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K76" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ОАО «Полоцкий комбинат хлебопродуктов», г.Пинск</v>
+      </c>
+      <c r="L76" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Странчевский Марк Феликсович</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>1355</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>91</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>74</v>
-      </c>
-      <c r="E76" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76">
-        <v>10702120</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" t="str">
-        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
-        <v>Сухоцкий Иван Алексеевич</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>4448</v>
-      </c>
-      <c r="B77" t="s">
-        <v>261</v>
-      </c>
-      <c r="C77" t="s">
-        <v>230</v>
-      </c>
-      <c r="D77" t="s">
-        <v>29</v>
       </c>
       <c r="E77" t="s">
         <v>15</v>
       </c>
       <c r="F77">
-        <v>10702220</v>
+        <v>10702120</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="H77" s="3"/>
+      <c r="H77" s="37"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L77" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
-        <v>Тарасовец Вадим Витальевич</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Сухоцкий Иван Алексеевич</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>3947</v>
+        <v>4448</v>
       </c>
       <c r="B78" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="C78" t="s">
-        <v>314</v>
+        <v>230</v>
       </c>
       <c r="D78" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="E78" t="s">
         <v>15</v>
       </c>
       <c r="F78">
-        <v>10702420</v>
+        <v>10702220</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L78" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
-        <v>Тищенко Святослав Николаевич</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Тарасовец Вадим Витальевич</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>4492</v>
+        <v>3947</v>
       </c>
       <c r="B79" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="C79" t="s">
-        <v>38</v>
+        <v>314</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="E79" t="s">
         <v>15</v>
       </c>
       <c r="F79">
-        <v>10702320</v>
+        <v>10702420</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L79" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
-        <v>Тонкович Никита Сергеевич</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Тищенко Святослав Николаевич</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>915</v>
+        <v>4492</v>
       </c>
       <c r="B80" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -9350,26 +12246,33 @@
         <v>15</v>
       </c>
       <c r="F80">
-        <v>10702420</v>
+        <v>10702320</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L80" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
-        <v>Турко Владислав Сергеевич</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Тонкович Никита Сергеевич</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>4336</v>
+        <v>915</v>
       </c>
       <c r="B81" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C81" t="s">
-        <v>317</v>
+        <v>36</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
@@ -9382,22 +12285,23 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L81" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
-        <v xml:space="preserve">Фан Чан Ань Туан </v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Турко Владислав Сергеевич</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>3229</v>
+        <v>4336</v>
       </c>
       <c r="B82" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
-      </c>
-      <c r="D82" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -9410,403 +12314,537 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L82" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
-        <v>Федоровский Дмитрий Александрович</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Фан Чан Ань Туан </v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>6893</v>
+        <v>3229</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="C83" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F83">
-        <v>10702320</v>
+        <v>10702420</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L83" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
+        <v>Федоровский Дмитрий Александрович</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>6893</v>
+      </c>
+      <c r="B84" t="s">
+        <v>288</v>
+      </c>
+      <c r="C84" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84">
+        <v>10702320</v>
+      </c>
+      <c r="G84" s="2">
+        <v>182</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K84" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ГУО «Гимназия г.Дзержинкска», г.Дзержинск</v>
+      </c>
+      <c r="L84" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Филатов Андрей Сергеевич</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>6440</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>262</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>38</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>47</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>8</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <v>10702220</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G85" s="2">
         <v>149</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K84" t="str">
+      <c r="I85" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K85" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ООО «Модсен», г.Минск</v>
+      </c>
+      <c r="L85" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Халецкий Никита Владимирович</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>2707</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>289</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>290</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>223</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E86" t="s">
         <v>15</v>
       </c>
-      <c r="F85">
+      <c r="F86">
         <v>10702320</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G86" s="2">
         <v>109</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H86" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I86" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="K85" t="str">
+      <c r="K86" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>УО «Государственный центр коррекционно-развивающего обучения и реабилитации г.Гродно», г.Гродно</v>
+      </c>
+      <c r="L86" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Ходькова Милана Олеговна</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>6523</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>263</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>243</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>45</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86">
-        <v>10702220</v>
-      </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" t="str">
-        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
-        <v>Шавнёва Екатерина Александровна</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>4046</v>
-      </c>
-      <c r="B87" t="s">
-        <v>227</v>
-      </c>
-      <c r="C87" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" t="s">
-        <v>14</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
       </c>
       <c r="F87">
-        <v>10702120</v>
+        <v>10702220</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L87" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
+        <v>Шавнёва Екатерина Александровна</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4046</v>
+      </c>
+      <c r="B88" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88">
+        <v>10702120</v>
+      </c>
+      <c r="G88" s="2">
+        <v>191</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K88" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ОАО «Борисовский завод медицинских препаратов», г.Борисов</v>
+      </c>
+      <c r="L88" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Шатило Кирилл Сергеевич</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>2981</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>264</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>103</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>29</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>8</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <v>10702220</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" t="str">
+      <c r="G89" s="2"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L89" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Шепетов Дмитрий Витальевич</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>2604</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>291</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>36</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>47</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E90" t="s">
         <v>15</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <v>10702320</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G90" s="2">
         <v>136</v>
       </c>
-      <c r="H89" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K89" t="str">
+      <c r="H90" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K90" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ОАО «КБ Радар», г.Минск</v>
+      </c>
+      <c r="L90" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Шпак Владислав Владимирович</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>5472</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>24</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>11</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E91" t="s">
         <v>15</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <v>10702120</v>
-      </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" t="str">
-        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
-        <v>Яковкин Степан Александрович</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>4215</v>
-      </c>
-      <c r="B91" t="s">
-        <v>265</v>
-      </c>
-      <c r="C91" t="s">
-        <v>147</v>
-      </c>
-      <c r="D91" t="s">
-        <v>74</v>
-      </c>
-      <c r="E91" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91">
-        <v>10702220</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L91" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
+        <v>Яковкин Степан Александрович</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4215</v>
+      </c>
+      <c r="B92" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" t="s">
+        <v>74</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>10702220</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v xml:space="preserve"> «», г.</v>
+      </c>
+      <c r="L92" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Янцевич Владимир Алексеевич</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>3493</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>266</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>84</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>39</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E93" t="s">
         <v>15</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>10702220</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G93" s="2">
         <v>131</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="K92" t="str">
+      <c r="H93" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="J93" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="K93" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ГУ «Центр по обеспечению деятельности бюджетных организаций Бешенковичского района», г.г.п. Бешенковичи</v>
+      </c>
+      <c r="L93" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Яцук Михаил Андреевич</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>1</v>
       </c>
-      <c r="B93" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="C93" s="26" t="s">
+      <c r="B94" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C94" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D93" s="26" t="s">
+      <c r="D94" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="E94" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <v>10702320</v>
       </c>
-      <c r="G93" s="28">
+      <c r="G94" s="2">
         <v>178</v>
       </c>
-      <c r="H93" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="I93" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="J93" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="K93" t="str">
+      <c r="H94" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="J94" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="K94" s="1" t="str">
+        <f>CONCATENATE(Таблица4[[#This Row],[ООО]]," «",Таблица4[[#This Row],[НазваОрганизации ]],"», г.",Таблица4[[#This Row],[город]])</f>
+        <v>ЧУП «АйТи Перфоманс», г.Минск</v>
+      </c>
+      <c r="L94" t="str">
         <f>CONCATENATE(Таблица4[[#This Row],[Фамилия]]," ",Таблица4[[#This Row],[Имя]]," ",Таблица4[[#This Row],[Отчество]])</f>
         <v>Яшкин Кирилл Викторович</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B94" s="29">
-        <f>COUNTA(B2:B93)</f>
-        <v>92</v>
-      </c>
-      <c r="G94" s="12">
-        <f>SUBTOTAL(104,G2:G93)</f>
-        <v>178</v>
-      </c>
-      <c r="I94" s="30">
-        <f>COUNTA(I2:I93)</f>
-        <v>45</v>
-      </c>
-      <c r="M94" s="4">
-        <f>MAX(G94,ПОИТ!G102)</f>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G95" s="5">
-        <f>M94</f>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M96" s="8">
-        <f>SUM(ПОИТ!I102,I94)</f>
-        <v>99</v>
+    <row r="95" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B95" s="29">
+        <f>COUNTA(B2:B94)</f>
+        <v>93</v>
+      </c>
+      <c r="G95" s="12">
+        <f>SUBTOTAL(104,G2:G94)</f>
+        <v>195</v>
+      </c>
+      <c r="I95" s="30">
+        <f>COUNTA(I2:I94)</f>
+        <v>55</v>
+      </c>
+      <c r="N95" s="4">
+        <f>MAX(G95,ПОИТ!G102)</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G96" s="5">
+        <f>N95</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="10:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J97" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="K97" s="15">
+        <f>I95</f>
+        <v>55</v>
+      </c>
+      <c r="L97" s="16">
+        <f>K97/K99</f>
+        <v>0.59139784946236562</v>
+      </c>
+      <c r="N97" s="8">
+        <f>SUM(ПОИТ!I102,I95)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J98" s="17"/>
+      <c r="L98" s="18"/>
+    </row>
+    <row r="99" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J99" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="K99" s="13">
+        <f>B95</f>
+        <v>93</v>
+      </c>
+      <c r="L99" s="18"/>
+    </row>
+    <row r="100" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J100" s="17"/>
+      <c r="L100" s="18"/>
+    </row>
+    <row r="101" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J101" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="K101" s="21">
+        <f>K99-K97</f>
+        <v>38</v>
+      </c>
+      <c r="L101" s="22">
+        <f>K101/K99</f>
+        <v>0.40860215053763443</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G19 G21:G93">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>$M$94</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>$M$102</formula>
+  <conditionalFormatting sqref="G2:G94">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$G$96</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9816,7 +12854,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9829,7 +12867,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>321</v>
@@ -9841,27 +12879,27 @@
         <v>320</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="G1" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" t="s">
         <v>330</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>331</v>
-      </c>
-      <c r="D2" t="s">
-        <v>332</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -9869,13 +12907,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -9883,13 +12921,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -9897,13 +12935,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9911,13 +12949,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9925,13 +12963,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -9940,10 +12978,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
